--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_12_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_12_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61439.88399982177</v>
+        <v>-72798.6227267619</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31254235.35404399</v>
+        <v>31254235.35404397</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20101344.38845664</v>
+        <v>20101344.38845666</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>781127.7192044386</v>
+        <v>781127.7192044385</v>
       </c>
     </row>
     <row r="11">
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>6.290631848041479</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="T17" t="n">
-        <v>6.290631848041479</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>5.540788531754933</v>
+        <v>5.540788531754926</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.540788531754933</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>5.540788531754926</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="W18" t="n">
-        <v>6.290631848041479</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>6.290631848041479</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.290631848041479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="S19" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="T19" t="n">
-        <v>5.540788531754933</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>5.540788531754925</v>
       </c>
       <c r="W19" t="n">
-        <v>6.290631848041479</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.290631848041479</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.290631848041479</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.290631848041479</v>
+        <v>5.540788531754926</v>
       </c>
       <c r="T20" t="n">
-        <v>5.540788531754933</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>5.540788531754925</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="T21" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="U21" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.540788531754933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>5.540788531754925</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.290631848041479</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>6.290631848041479</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="X22" t="n">
-        <v>6.290631848041479</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.540788531754933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>15.05805425947915</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="G23" t="n">
-        <v>13.26313419174923</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="H23" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2399,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>13.26313419174923</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2450,16 +2450,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="V24" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="W24" t="n">
-        <v>15.05805425947915</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2481,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="E25" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>13.26313419174923</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="W25" t="n">
-        <v>15.05805425947915</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="H26" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="T26" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>13.26313419174923</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="H27" t="n">
-        <v>13.26313419174923</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="T27" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="V27" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="C28" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="U28" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>13.26313419174923</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
     </row>
     <row r="29">
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>13.26313419174924</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13.26313419174924</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2882,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2924,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13.26313419174923</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="F32" t="n">
-        <v>13.26313419174924</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>15.05805425947915</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3158,19 +3158,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="V33" t="n">
-        <v>13.26313419174924</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="W33" t="n">
-        <v>15.05805425947915</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>13.26313419174924</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>13.26313419174924</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3350,16 +3350,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>13.26313419174924</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="W36" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="T37" t="n">
-        <v>13.26313419174924</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="U37" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>15.05805425947915</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>13.26313419174923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3593,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>15.05805425947915</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="G39" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3632,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="U39" t="n">
-        <v>13.26313419174923</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>13.26313419174924</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="T40" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>15.05805425947915</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15.05805425947917</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="G41" t="n">
-        <v>13.26313419174925</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>15.05805425947917</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>15.05805425947917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>13.26313419174925</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>15.05805425947917</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="U42" t="n">
-        <v>15.05805425947917</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>15.05805425947917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>15.05805425947917</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>15.05805425947917</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>15.05805425947917</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>13.26313419174925</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="C44" t="n">
-        <v>13.26313419174921</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>15.05805425947912</v>
       </c>
       <c r="T44" t="n">
-        <v>15.05805425947912</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4061,16 +4061,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
+        <v>15.05805425947912</v>
+      </c>
+      <c r="G45" t="n">
         <v>13.26313419174921</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4109,13 +4109,13 @@
         <v>15.05805425947912</v>
       </c>
       <c r="T45" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4137,23 +4137,23 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
         <v>15.05805425947912</v>
       </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="U46" t="n">
-        <v>15.05805425947912</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="V46" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>13.26313419174921</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.857424131723601</v>
+        <v>6.857424131723592</v>
       </c>
       <c r="C17" t="n">
-        <v>6.857424131723601</v>
+        <v>6.857424131723592</v>
       </c>
       <c r="D17" t="n">
-        <v>6.857424131723601</v>
+        <v>6.857424131723592</v>
       </c>
       <c r="E17" t="n">
-        <v>6.857424131723601</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="F17" t="n">
-        <v>6.857424131723601</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="G17" t="n">
-        <v>6.857424131723601</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="H17" t="n">
-        <v>6.857424131723601</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5032505478433184</v>
+        <v>3.904975844496894</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5032505478433184</v>
+        <v>3.904975844496894</v>
       </c>
       <c r="L17" t="n">
-        <v>3.077625506829147</v>
+        <v>6.479350803482716</v>
       </c>
       <c r="M17" t="n">
-        <v>9.30535103639021</v>
+        <v>12.70707633304377</v>
       </c>
       <c r="N17" t="n">
-        <v>15.53307656595127</v>
+        <v>18.93480186260483</v>
       </c>
       <c r="O17" t="n">
-        <v>21.76080209551234</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="P17" t="n">
-        <v>21.76080209551234</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.76080209551234</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="R17" t="n">
-        <v>25.16252739216592</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="S17" t="n">
-        <v>18.80835380828563</v>
+        <v>18.80835380828561</v>
       </c>
       <c r="T17" t="n">
-        <v>12.45418022440535</v>
+        <v>18.80835380828561</v>
       </c>
       <c r="U17" t="n">
-        <v>6.857424131723601</v>
+        <v>13.21159771560387</v>
       </c>
       <c r="V17" t="n">
-        <v>6.857424131723601</v>
+        <v>6.857424131723592</v>
       </c>
       <c r="W17" t="n">
-        <v>6.857424131723601</v>
+        <v>6.857424131723592</v>
       </c>
       <c r="X17" t="n">
-        <v>6.857424131723601</v>
+        <v>6.857424131723592</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.857424131723601</v>
+        <v>6.857424131723592</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5032505478433184</v>
+        <v>6.857424131723592</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5032505478433184</v>
+        <v>6.857424131723592</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5032505478433184</v>
+        <v>6.857424131723592</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5032505478433184</v>
+        <v>6.857424131723592</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="L18" t="n">
-        <v>6.730976077404383</v>
+        <v>1.809117645498225</v>
       </c>
       <c r="M18" t="n">
-        <v>12.95870160696545</v>
+        <v>8.036843175059282</v>
       </c>
       <c r="N18" t="n">
-        <v>19.18642713652651</v>
+        <v>14.26456870462034</v>
       </c>
       <c r="O18" t="n">
-        <v>25.16252739216592</v>
+        <v>20.49229423418139</v>
       </c>
       <c r="P18" t="n">
-        <v>25.16252739216592</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="Q18" t="n">
-        <v>25.16252739216592</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="R18" t="n">
-        <v>25.16252739216592</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="S18" t="n">
-        <v>25.16252739216592</v>
+        <v>19.56577129948414</v>
       </c>
       <c r="T18" t="n">
-        <v>25.16252739216592</v>
+        <v>13.21159771560387</v>
       </c>
       <c r="U18" t="n">
-        <v>25.16252739216592</v>
+        <v>13.21159771560387</v>
       </c>
       <c r="V18" t="n">
-        <v>25.16252739216592</v>
+        <v>6.857424131723592</v>
       </c>
       <c r="W18" t="n">
-        <v>18.80835380828563</v>
+        <v>6.857424131723592</v>
       </c>
       <c r="X18" t="n">
-        <v>12.45418022440535</v>
+        <v>6.857424131723592</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.10000664052507</v>
+        <v>6.857424131723592</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="J19" t="n">
-        <v>6.730976077404383</v>
+        <v>6.479350803482716</v>
       </c>
       <c r="K19" t="n">
-        <v>12.95870160696545</v>
+        <v>12.70707633304377</v>
       </c>
       <c r="L19" t="n">
-        <v>18.93480186260485</v>
+        <v>18.93480186260483</v>
       </c>
       <c r="M19" t="n">
-        <v>18.93480186260485</v>
+        <v>18.93480186260483</v>
       </c>
       <c r="N19" t="n">
-        <v>18.93480186260485</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="O19" t="n">
-        <v>18.93480186260485</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="P19" t="n">
-        <v>18.93480186260485</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="Q19" t="n">
-        <v>25.16252739216592</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="R19" t="n">
-        <v>18.80835380828563</v>
+        <v>18.80835380828561</v>
       </c>
       <c r="S19" t="n">
-        <v>12.45418022440535</v>
+        <v>12.45418022440533</v>
       </c>
       <c r="T19" t="n">
-        <v>6.857424131723601</v>
+        <v>12.45418022440533</v>
       </c>
       <c r="U19" t="n">
-        <v>6.857424131723601</v>
+        <v>6.10000664052506</v>
       </c>
       <c r="V19" t="n">
-        <v>6.857424131723601</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="W19" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="X19" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.21159771560388</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="C20" t="n">
-        <v>6.857424131723601</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="D20" t="n">
-        <v>6.857424131723601</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="E20" t="n">
-        <v>6.857424131723601</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="L20" t="n">
-        <v>3.077625506829147</v>
+        <v>3.077625506829139</v>
       </c>
       <c r="M20" t="n">
-        <v>9.30535103639021</v>
+        <v>9.305351036390196</v>
       </c>
       <c r="N20" t="n">
-        <v>15.53307656595127</v>
+        <v>15.53307656595125</v>
       </c>
       <c r="O20" t="n">
-        <v>21.76080209551234</v>
+        <v>21.76080209551231</v>
       </c>
       <c r="P20" t="n">
-        <v>25.16252739216592</v>
+        <v>21.76080209551231</v>
       </c>
       <c r="Q20" t="n">
-        <v>25.16252739216592</v>
+        <v>21.76080209551231</v>
       </c>
       <c r="R20" t="n">
-        <v>25.16252739216592</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="S20" t="n">
-        <v>18.80835380828563</v>
+        <v>19.56577129948414</v>
       </c>
       <c r="T20" t="n">
-        <v>13.21159771560388</v>
+        <v>13.21159771560387</v>
       </c>
       <c r="U20" t="n">
-        <v>13.21159771560388</v>
+        <v>6.857424131723592</v>
       </c>
       <c r="V20" t="n">
-        <v>13.21159771560388</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="W20" t="n">
-        <v>13.21159771560388</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="X20" t="n">
-        <v>13.21159771560388</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.21159771560388</v>
+        <v>0.5032505478433177</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5032505478433184</v>
+        <v>6.10000664052506</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5032505478433184</v>
+        <v>6.10000664052506</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5032505478433184</v>
+        <v>6.10000664052506</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5032505478433184</v>
+        <v>6.10000664052506</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5032505478433184</v>
+        <v>6.10000664052506</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="L21" t="n">
-        <v>1.809117645498229</v>
+        <v>6.730976077404375</v>
       </c>
       <c r="M21" t="n">
-        <v>8.036843175059293</v>
+        <v>8.036843175059282</v>
       </c>
       <c r="N21" t="n">
-        <v>14.26456870462036</v>
+        <v>14.26456870462034</v>
       </c>
       <c r="O21" t="n">
-        <v>20.49229423418142</v>
+        <v>20.49229423418139</v>
       </c>
       <c r="P21" t="n">
-        <v>25.16252739216592</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="Q21" t="n">
-        <v>25.16252739216592</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="R21" t="n">
-        <v>25.16252739216592</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="S21" t="n">
-        <v>18.80835380828563</v>
+        <v>18.80835380828561</v>
       </c>
       <c r="T21" t="n">
-        <v>12.45418022440535</v>
+        <v>12.45418022440533</v>
       </c>
       <c r="U21" t="n">
-        <v>6.10000664052507</v>
+        <v>6.10000664052506</v>
       </c>
       <c r="V21" t="n">
-        <v>6.10000664052507</v>
+        <v>6.10000664052506</v>
       </c>
       <c r="W21" t="n">
-        <v>6.10000664052507</v>
+        <v>6.10000664052506</v>
       </c>
       <c r="X21" t="n">
-        <v>6.10000664052507</v>
+        <v>6.10000664052506</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.5032505478433184</v>
+        <v>6.10000664052506</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5032505478433184</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="M22" t="n">
-        <v>6.479350803482727</v>
+        <v>6.479350803482716</v>
       </c>
       <c r="N22" t="n">
-        <v>12.70707633304379</v>
+        <v>12.70707633304377</v>
       </c>
       <c r="O22" t="n">
-        <v>18.93480186260485</v>
+        <v>18.93480186260483</v>
       </c>
       <c r="P22" t="n">
-        <v>25.16252739216592</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="Q22" t="n">
-        <v>25.16252739216592</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="R22" t="n">
-        <v>18.80835380828563</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="S22" t="n">
-        <v>12.45418022440535</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="T22" t="n">
-        <v>12.45418022440535</v>
+        <v>18.80835380828561</v>
       </c>
       <c r="U22" t="n">
-        <v>12.45418022440535</v>
+        <v>18.80835380828561</v>
       </c>
       <c r="V22" t="n">
-        <v>12.45418022440535</v>
+        <v>12.45418022440533</v>
       </c>
       <c r="W22" t="n">
-        <v>12.45418022440535</v>
+        <v>6.10000664052506</v>
       </c>
       <c r="X22" t="n">
-        <v>6.10000664052507</v>
+        <v>6.10000664052506</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.5032505478433184</v>
+        <v>6.10000664052506</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60.23221703791658</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="C23" t="n">
-        <v>60.23221703791658</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="D23" t="n">
-        <v>60.23221703791658</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="E23" t="n">
-        <v>45.02206122026088</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="F23" t="n">
-        <v>29.81190540260518</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="G23" t="n">
-        <v>16.41480015841404</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H23" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I23" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J23" t="n">
-        <v>1.204644340758313</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K23" t="n">
-        <v>3.442330717834867</v>
+        <v>3.442330717834871</v>
       </c>
       <c r="L23" t="n">
-        <v>12.21491484027814</v>
+        <v>12.21491484027813</v>
       </c>
       <c r="M23" t="n">
-        <v>27.12238855716249</v>
+        <v>27.12238855716247</v>
       </c>
       <c r="N23" t="n">
-        <v>42.02986227404685</v>
+        <v>42.02986227404681</v>
       </c>
       <c r="O23" t="n">
-        <v>54.87532469310614</v>
+        <v>54.87532469310608</v>
       </c>
       <c r="P23" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R23" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S23" t="n">
-        <v>60.23221703791658</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T23" t="n">
-        <v>60.23221703791658</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="U23" t="n">
-        <v>60.23221703791658</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="V23" t="n">
-        <v>60.23221703791658</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="W23" t="n">
-        <v>60.23221703791658</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="X23" t="n">
-        <v>60.23221703791658</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="Y23" t="n">
-        <v>60.23221703791658</v>
+        <v>29.81190540260514</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>29.81190540260518</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C24" t="n">
-        <v>16.41480015841404</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D24" t="n">
-        <v>16.41480015841404</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E24" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F24" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G24" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H24" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I24" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J24" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K24" t="n">
-        <v>1.204644340758332</v>
+        <v>4.598115868451898</v>
       </c>
       <c r="L24" t="n">
-        <v>13.29499852785217</v>
+        <v>16.68847005554573</v>
       </c>
       <c r="M24" t="n">
-        <v>28.20247224473653</v>
+        <v>31.59594377243007</v>
       </c>
       <c r="N24" t="n">
-        <v>43.10994596162088</v>
+        <v>46.5034174893144</v>
       </c>
       <c r="O24" t="n">
-        <v>51.54902890335271</v>
+        <v>51.54902890335265</v>
       </c>
       <c r="P24" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q24" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R24" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S24" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="T24" t="n">
-        <v>60.23221703791658</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="U24" t="n">
-        <v>60.23221703791658</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="V24" t="n">
-        <v>45.02206122026088</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="W24" t="n">
-        <v>29.81190540260518</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X24" t="n">
-        <v>29.81190540260518</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y24" t="n">
-        <v>29.81190540260518</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.41480015841404</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="C25" t="n">
-        <v>16.41480015841404</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="D25" t="n">
-        <v>16.41480015841404</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L25" t="n">
-        <v>16.11211805764269</v>
+        <v>16.11211805764267</v>
       </c>
       <c r="M25" t="n">
-        <v>31.01959177452704</v>
+        <v>31.019591774527</v>
       </c>
       <c r="N25" t="n">
-        <v>45.32474332103223</v>
+        <v>45.32474332103217</v>
       </c>
       <c r="O25" t="n">
-        <v>60.23221703791658</v>
+        <v>45.32474332103217</v>
       </c>
       <c r="P25" t="n">
-        <v>60.23221703791658</v>
+        <v>45.32474332103217</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R25" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S25" t="n">
-        <v>46.83511179372545</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="T25" t="n">
-        <v>46.83511179372545</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="U25" t="n">
-        <v>31.62495597606974</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="V25" t="n">
-        <v>31.62495597606974</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="W25" t="n">
-        <v>16.41480015841404</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="X25" t="n">
-        <v>16.41480015841404</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="Y25" t="n">
-        <v>16.41480015841404</v>
+        <v>16.41480015841402</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>16.41480015841404</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="C26" t="n">
-        <v>16.41480015841404</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="D26" t="n">
-        <v>16.41480015841404</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="E26" t="n">
-        <v>16.41480015841404</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="F26" t="n">
-        <v>16.41480015841404</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="G26" t="n">
-        <v>16.41480015841404</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H26" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I26" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J26" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K26" t="n">
-        <v>3.442330717834892</v>
+        <v>3.442330717834871</v>
       </c>
       <c r="L26" t="n">
-        <v>12.21491484027817</v>
+        <v>12.21491484027813</v>
       </c>
       <c r="M26" t="n">
-        <v>27.12238855716251</v>
+        <v>27.12238855716247</v>
       </c>
       <c r="N26" t="n">
-        <v>42.02986227404686</v>
+        <v>42.02986227404681</v>
       </c>
       <c r="O26" t="n">
-        <v>54.87532469310613</v>
+        <v>54.87532469310608</v>
       </c>
       <c r="P26" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q26" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R26" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S26" t="n">
-        <v>45.02206122026088</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T26" t="n">
-        <v>29.81190540260518</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="U26" t="n">
-        <v>16.41480015841404</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="V26" t="n">
-        <v>16.41480015841404</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="W26" t="n">
-        <v>16.41480015841404</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="X26" t="n">
-        <v>16.41480015841404</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="Y26" t="n">
-        <v>16.41480015841404</v>
+        <v>16.41480015841402</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14.60174958494947</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="C27" t="n">
-        <v>14.60174958494947</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="D27" t="n">
-        <v>14.60174958494947</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="E27" t="n">
-        <v>14.60174958494947</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="F27" t="n">
-        <v>14.60174958494947</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="G27" t="n">
-        <v>14.60174958494947</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H27" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I27" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J27" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K27" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L27" t="n">
         <v>13.29499852785217</v>
       </c>
       <c r="M27" t="n">
-        <v>21.90820629660678</v>
+        <v>28.2024722447365</v>
       </c>
       <c r="N27" t="n">
-        <v>36.81568001349113</v>
+        <v>36.81568001349109</v>
       </c>
       <c r="O27" t="n">
-        <v>51.54902890335271</v>
+        <v>51.54902890335265</v>
       </c>
       <c r="P27" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q27" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R27" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S27" t="n">
-        <v>45.02206122026088</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T27" t="n">
-        <v>29.81190540260518</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="U27" t="n">
-        <v>29.81190540260518</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="V27" t="n">
-        <v>14.60174958494947</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="W27" t="n">
-        <v>14.60174958494947</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="X27" t="n">
-        <v>14.60174958494947</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="Y27" t="n">
-        <v>14.60174958494947</v>
+        <v>16.41480015841402</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.41480015841404</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J28" t="n">
-        <v>1.204644340758332</v>
+        <v>15.5097958872635</v>
       </c>
       <c r="K28" t="n">
-        <v>1.204644340758332</v>
+        <v>30.41726960414784</v>
       </c>
       <c r="L28" t="n">
-        <v>16.11211805764269</v>
+        <v>30.41726960414784</v>
       </c>
       <c r="M28" t="n">
-        <v>31.01959177452704</v>
+        <v>30.41726960414784</v>
       </c>
       <c r="N28" t="n">
-        <v>45.32474332103223</v>
+        <v>30.41726960414784</v>
       </c>
       <c r="O28" t="n">
-        <v>45.32474332103223</v>
+        <v>45.32474332103217</v>
       </c>
       <c r="P28" t="n">
-        <v>45.32474332103223</v>
+        <v>45.32474332103217</v>
       </c>
       <c r="Q28" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R28" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S28" t="n">
-        <v>60.23221703791658</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T28" t="n">
-        <v>60.23221703791658</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="U28" t="n">
-        <v>45.02206122026088</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="V28" t="n">
-        <v>29.81190540260518</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="W28" t="n">
-        <v>16.41480015841404</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="X28" t="n">
-        <v>16.41480015841404</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="Y28" t="n">
-        <v>16.41480015841404</v>
+        <v>14.60174958494945</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>45.02206122026089</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="C29" t="n">
-        <v>45.02206122026089</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="D29" t="n">
-        <v>45.02206122026089</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="E29" t="n">
-        <v>29.81190540260519</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="F29" t="n">
-        <v>14.60174958494948</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="G29" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H29" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I29" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J29" t="n">
-        <v>1.20464434075832</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K29" t="n">
-        <v>3.442330717834874</v>
+        <v>3.442330717834871</v>
       </c>
       <c r="L29" t="n">
-        <v>12.21491484027815</v>
+        <v>12.21491484027813</v>
       </c>
       <c r="M29" t="n">
-        <v>27.12238855716251</v>
+        <v>27.12238855716247</v>
       </c>
       <c r="N29" t="n">
-        <v>42.02986227404686</v>
+        <v>42.02986227404681</v>
       </c>
       <c r="O29" t="n">
-        <v>54.87532469310615</v>
+        <v>54.87532469310608</v>
       </c>
       <c r="P29" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q29" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R29" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S29" t="n">
-        <v>60.2322170379166</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T29" t="n">
-        <v>60.2322170379166</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="U29" t="n">
-        <v>60.2322170379166</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="V29" t="n">
-        <v>60.2322170379166</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="W29" t="n">
-        <v>60.2322170379166</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="X29" t="n">
-        <v>45.02206122026089</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="Y29" t="n">
-        <v>45.02206122026089</v>
+        <v>16.41480015841402</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.204644340758332</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="C30" t="n">
-        <v>1.204644340758332</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="D30" t="n">
-        <v>1.204644340758332</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="E30" t="n">
-        <v>1.204644340758332</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="F30" t="n">
-        <v>1.204644340758332</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="G30" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H30" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I30" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J30" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K30" t="n">
-        <v>4.59811586845191</v>
+        <v>4.598115868451898</v>
       </c>
       <c r="L30" t="n">
-        <v>16.68847005554575</v>
+        <v>16.68847005554573</v>
       </c>
       <c r="M30" t="n">
-        <v>21.90820629660679</v>
+        <v>31.59594377243007</v>
       </c>
       <c r="N30" t="n">
-        <v>36.81568001349115</v>
+        <v>46.5034174893144</v>
       </c>
       <c r="O30" t="n">
-        <v>51.54902890335273</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="P30" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q30" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R30" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S30" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="T30" t="n">
-        <v>60.2322170379166</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="U30" t="n">
-        <v>60.2322170379166</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="V30" t="n">
-        <v>60.2322170379166</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="W30" t="n">
-        <v>45.02206122026089</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="X30" t="n">
-        <v>29.81190540260519</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="Y30" t="n">
-        <v>14.60174958494948</v>
+        <v>31.6249559760697</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.83511179372545</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C31" t="n">
-        <v>46.83511179372545</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D31" t="n">
-        <v>46.83511179372545</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E31" t="n">
-        <v>31.62495597606975</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F31" t="n">
-        <v>16.41480015841404</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J31" t="n">
-        <v>16.11211805764269</v>
+        <v>16.11211805764267</v>
       </c>
       <c r="K31" t="n">
-        <v>16.11211805764269</v>
+        <v>31.019591774527</v>
       </c>
       <c r="L31" t="n">
-        <v>16.11211805764269</v>
+        <v>31.019591774527</v>
       </c>
       <c r="M31" t="n">
-        <v>31.01959177452705</v>
+        <v>45.32474332103217</v>
       </c>
       <c r="N31" t="n">
-        <v>45.9270654914114</v>
+        <v>45.32474332103217</v>
       </c>
       <c r="O31" t="n">
-        <v>60.2322170379166</v>
+        <v>45.32474332103217</v>
       </c>
       <c r="P31" t="n">
-        <v>60.2322170379166</v>
+        <v>45.32474332103217</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R31" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S31" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="T31" t="n">
-        <v>60.2322170379166</v>
+        <v>46.83511179372539</v>
       </c>
       <c r="U31" t="n">
-        <v>60.2322170379166</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="V31" t="n">
-        <v>60.2322170379166</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="W31" t="n">
-        <v>60.2322170379166</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X31" t="n">
-        <v>60.2322170379166</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y31" t="n">
-        <v>60.2322170379166</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>60.2322170379166</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="C32" t="n">
-        <v>45.02206122026089</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="D32" t="n">
-        <v>45.02206122026089</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="E32" t="n">
-        <v>29.81190540260519</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="F32" t="n">
-        <v>16.41480015841404</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="G32" t="n">
-        <v>16.41480015841404</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="H32" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I32" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J32" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K32" t="n">
-        <v>3.442330717834887</v>
+        <v>3.442330717834871</v>
       </c>
       <c r="L32" t="n">
-        <v>12.21491484027816</v>
+        <v>12.21491484027813</v>
       </c>
       <c r="M32" t="n">
-        <v>27.12238855716252</v>
+        <v>27.12238855716247</v>
       </c>
       <c r="N32" t="n">
-        <v>42.02986227404688</v>
+        <v>42.02986227404681</v>
       </c>
       <c r="O32" t="n">
-        <v>54.87532469310617</v>
+        <v>54.87532469310608</v>
       </c>
       <c r="P32" t="n">
-        <v>60.23221703791661</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q32" t="n">
-        <v>60.23221703791661</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R32" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S32" t="n">
-        <v>60.2322170379166</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T32" t="n">
-        <v>60.2322170379166</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="U32" t="n">
-        <v>60.2322170379166</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="V32" t="n">
-        <v>60.2322170379166</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="W32" t="n">
-        <v>60.2322170379166</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="X32" t="n">
-        <v>60.2322170379166</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="Y32" t="n">
-        <v>60.2322170379166</v>
+        <v>29.81190540260514</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C33" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D33" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E33" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F33" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G33" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H33" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I33" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J33" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K33" t="n">
-        <v>4.59811586845191</v>
+        <v>4.598115868451898</v>
       </c>
       <c r="L33" t="n">
-        <v>16.68847005554575</v>
+        <v>16.68847005554573</v>
       </c>
       <c r="M33" t="n">
-        <v>21.90820629660679</v>
+        <v>21.90820629660675</v>
       </c>
       <c r="N33" t="n">
-        <v>36.81568001349115</v>
+        <v>36.81568001349109</v>
       </c>
       <c r="O33" t="n">
-        <v>51.54902890335273</v>
+        <v>51.54902890335265</v>
       </c>
       <c r="P33" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q33" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R33" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S33" t="n">
-        <v>45.02206122026089</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T33" t="n">
-        <v>45.02206122026089</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="U33" t="n">
-        <v>29.81190540260519</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="V33" t="n">
-        <v>16.41480015841404</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="W33" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X33" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.81190540260519</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="C34" t="n">
-        <v>14.60174958494948</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D34" t="n">
-        <v>14.60174958494948</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E34" t="n">
-        <v>14.60174958494948</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F34" t="n">
-        <v>14.60174958494948</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J34" t="n">
-        <v>1.204644340758332</v>
+        <v>15.5097958872635</v>
       </c>
       <c r="K34" t="n">
-        <v>1.204644340758332</v>
+        <v>30.41726960414784</v>
       </c>
       <c r="L34" t="n">
-        <v>1.204644340758332</v>
+        <v>45.32474332103217</v>
       </c>
       <c r="M34" t="n">
-        <v>16.11211805764269</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="N34" t="n">
-        <v>31.01959177452705</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="O34" t="n">
-        <v>45.9270654914114</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="P34" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R34" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S34" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="T34" t="n">
-        <v>60.2322170379166</v>
+        <v>46.83511179372539</v>
       </c>
       <c r="U34" t="n">
-        <v>60.2322170379166</v>
+        <v>46.83511179372539</v>
       </c>
       <c r="V34" t="n">
-        <v>60.2322170379166</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="W34" t="n">
-        <v>60.2322170379166</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="X34" t="n">
-        <v>60.2322170379166</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="Y34" t="n">
-        <v>45.02206122026089</v>
+        <v>16.41480015841402</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.81190540260519</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="C35" t="n">
-        <v>14.60174958494948</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="D35" t="n">
-        <v>14.60174958494948</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="E35" t="n">
-        <v>1.204644340758332</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="F35" t="n">
-        <v>1.204644340758332</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="G35" t="n">
-        <v>1.204644340758332</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="H35" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I35" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J35" t="n">
-        <v>1.204644340758332</v>
+        <v>1.204644340758334</v>
       </c>
       <c r="K35" t="n">
-        <v>3.442330717834887</v>
+        <v>3.442330717834874</v>
       </c>
       <c r="L35" t="n">
-        <v>12.21491484027816</v>
+        <v>12.21491484027813</v>
       </c>
       <c r="M35" t="n">
-        <v>27.12238855716252</v>
+        <v>27.12238855716247</v>
       </c>
       <c r="N35" t="n">
-        <v>42.02986227404688</v>
+        <v>42.02986227404681</v>
       </c>
       <c r="O35" t="n">
-        <v>54.87532469310617</v>
+        <v>54.87532469310608</v>
       </c>
       <c r="P35" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R35" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S35" t="n">
-        <v>60.2322170379166</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T35" t="n">
-        <v>60.2322170379166</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="U35" t="n">
-        <v>60.2322170379166</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="V35" t="n">
-        <v>60.2322170379166</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="W35" t="n">
-        <v>45.02206122026089</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="X35" t="n">
-        <v>29.81190540260519</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.81190540260519</v>
+        <v>29.81190540260514</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>14.60174958494948</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="C36" t="n">
-        <v>14.60174958494948</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="D36" t="n">
-        <v>1.204644340758332</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="E36" t="n">
-        <v>1.204644340758332</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="F36" t="n">
-        <v>1.204644340758332</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="G36" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H36" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I36" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J36" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K36" t="n">
-        <v>1.204644340758332</v>
+        <v>4.598115868451898</v>
       </c>
       <c r="L36" t="n">
-        <v>7.000732579722431</v>
+        <v>15.68392071428628</v>
       </c>
       <c r="M36" t="n">
-        <v>21.90820629660679</v>
+        <v>30.59139443117062</v>
       </c>
       <c r="N36" t="n">
-        <v>36.81568001349115</v>
+        <v>45.49886814805495</v>
       </c>
       <c r="O36" t="n">
-        <v>51.54902890335273</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="P36" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q36" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R36" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S36" t="n">
-        <v>60.2322170379166</v>
+        <v>46.83511179372539</v>
       </c>
       <c r="T36" t="n">
-        <v>60.2322170379166</v>
+        <v>46.83511179372539</v>
       </c>
       <c r="U36" t="n">
-        <v>45.02206122026089</v>
+        <v>46.83511179372539</v>
       </c>
       <c r="V36" t="n">
-        <v>29.81190540260519</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="W36" t="n">
-        <v>14.60174958494948</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="X36" t="n">
-        <v>14.60174958494948</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="Y36" t="n">
-        <v>14.60174958494948</v>
+        <v>31.6249559760697</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.204644340758332</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="C37" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D37" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E37" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F37" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G37" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H37" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I37" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J37" t="n">
-        <v>16.11211805764269</v>
+        <v>16.11211805764267</v>
       </c>
       <c r="K37" t="n">
-        <v>31.01959177452705</v>
+        <v>31.019591774527</v>
       </c>
       <c r="L37" t="n">
-        <v>45.32474332103224</v>
+        <v>31.019591774527</v>
       </c>
       <c r="M37" t="n">
-        <v>45.32474332103224</v>
+        <v>31.019591774527</v>
       </c>
       <c r="N37" t="n">
-        <v>45.32474332103224</v>
+        <v>31.019591774527</v>
       </c>
       <c r="O37" t="n">
-        <v>45.32474332103224</v>
+        <v>45.92706549141134</v>
       </c>
       <c r="P37" t="n">
-        <v>45.32474332103224</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R37" t="n">
-        <v>45.02206122026089</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S37" t="n">
-        <v>45.02206122026089</v>
+        <v>46.83511179372539</v>
       </c>
       <c r="T37" t="n">
-        <v>31.62495597606975</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="U37" t="n">
-        <v>16.41480015841404</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="V37" t="n">
-        <v>1.204644340758332</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="W37" t="n">
-        <v>1.204644340758332</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="X37" t="n">
-        <v>1.204644340758332</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.204644340758332</v>
+        <v>16.41480015841402</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.62495597606975</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="C38" t="n">
-        <v>16.41480015841404</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D38" t="n">
-        <v>16.41480015841404</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E38" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F38" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G38" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H38" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I38" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J38" t="n">
-        <v>1.204644340758332</v>
+        <v>1.204644340758334</v>
       </c>
       <c r="K38" t="n">
-        <v>3.442330717834887</v>
+        <v>3.442330717834874</v>
       </c>
       <c r="L38" t="n">
-        <v>12.21491484027816</v>
+        <v>12.21491484027813</v>
       </c>
       <c r="M38" t="n">
-        <v>27.12238855716252</v>
+        <v>27.12238855716247</v>
       </c>
       <c r="N38" t="n">
-        <v>42.02986227404688</v>
+        <v>42.02986227404681</v>
       </c>
       <c r="O38" t="n">
-        <v>54.87532469310615</v>
+        <v>54.87532469310608</v>
       </c>
       <c r="P38" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q38" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R38" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S38" t="n">
-        <v>60.2322170379166</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T38" t="n">
-        <v>60.2322170379166</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="U38" t="n">
-        <v>60.2322170379166</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="V38" t="n">
-        <v>60.2322170379166</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="W38" t="n">
-        <v>60.2322170379166</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="X38" t="n">
-        <v>60.2322170379166</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.83511179372545</v>
+        <v>14.60174958494945</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>31.62495597606975</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="C39" t="n">
-        <v>31.62495597606975</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="D39" t="n">
-        <v>31.62495597606975</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="E39" t="n">
-        <v>31.62495597606975</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="F39" t="n">
-        <v>16.41480015841404</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="G39" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H39" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I39" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J39" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K39" t="n">
-        <v>4.59811586845191</v>
+        <v>4.598115868451898</v>
       </c>
       <c r="L39" t="n">
-        <v>16.68847005554575</v>
+        <v>16.68847005554573</v>
       </c>
       <c r="M39" t="n">
-        <v>21.90820629660679</v>
+        <v>31.59594377243007</v>
       </c>
       <c r="N39" t="n">
-        <v>36.81568001349115</v>
+        <v>36.81568001349109</v>
       </c>
       <c r="O39" t="n">
-        <v>51.54902890335273</v>
+        <v>51.54902890335265</v>
       </c>
       <c r="P39" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q39" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R39" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S39" t="n">
-        <v>60.2322170379166</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T39" t="n">
-        <v>60.2322170379166</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="U39" t="n">
-        <v>46.83511179372545</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="V39" t="n">
-        <v>31.62495597606975</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="W39" t="n">
-        <v>31.62495597606975</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="X39" t="n">
-        <v>31.62495597606975</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="Y39" t="n">
-        <v>31.62495597606975</v>
+        <v>29.81190540260514</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.81190540260519</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C40" t="n">
-        <v>29.81190540260519</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D40" t="n">
-        <v>29.81190540260519</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E40" t="n">
-        <v>29.81190540260519</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F40" t="n">
-        <v>29.81190540260519</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G40" t="n">
-        <v>29.81190540260519</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H40" t="n">
-        <v>16.41480015841404</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I40" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J40" t="n">
-        <v>16.11211805764269</v>
+        <v>16.11211805764267</v>
       </c>
       <c r="K40" t="n">
-        <v>16.11211805764269</v>
+        <v>31.019591774527</v>
       </c>
       <c r="L40" t="n">
-        <v>30.41726960414789</v>
+        <v>31.019591774527</v>
       </c>
       <c r="M40" t="n">
-        <v>30.41726960414789</v>
+        <v>31.019591774527</v>
       </c>
       <c r="N40" t="n">
-        <v>30.41726960414789</v>
+        <v>31.019591774527</v>
       </c>
       <c r="O40" t="n">
-        <v>45.32474332103224</v>
+        <v>45.92706549141134</v>
       </c>
       <c r="P40" t="n">
-        <v>60.2322170379166</v>
+        <v>45.92706549141134</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R40" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S40" t="n">
-        <v>60.2322170379166</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T40" t="n">
-        <v>45.02206122026089</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="U40" t="n">
-        <v>45.02206122026089</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="V40" t="n">
-        <v>45.02206122026089</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="W40" t="n">
-        <v>45.02206122026089</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="X40" t="n">
-        <v>29.81190540260519</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.81190540260519</v>
+        <v>16.41480015841402</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>14.6017495849495</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="C41" t="n">
-        <v>14.6017495849495</v>
+        <v>14.60174958494946</v>
       </c>
       <c r="D41" t="n">
-        <v>14.6017495849495</v>
+        <v>14.60174958494946</v>
       </c>
       <c r="E41" t="n">
-        <v>14.6017495849495</v>
+        <v>14.60174958494946</v>
       </c>
       <c r="F41" t="n">
-        <v>14.6017495849495</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G41" t="n">
-        <v>1.204644340758334</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H41" t="n">
-        <v>1.204644340758334</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I41" t="n">
-        <v>1.204644340758334</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J41" t="n">
-        <v>1.204644340758334</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K41" t="n">
-        <v>3.44233071783489</v>
+        <v>3.442330717834857</v>
       </c>
       <c r="L41" t="n">
-        <v>12.21491484027817</v>
+        <v>12.21491484027811</v>
       </c>
       <c r="M41" t="n">
-        <v>27.12238855716254</v>
+        <v>27.12238855716245</v>
       </c>
       <c r="N41" t="n">
-        <v>42.02986227404692</v>
+        <v>42.0298622740468</v>
       </c>
       <c r="O41" t="n">
-        <v>54.87532469310622</v>
+        <v>54.87532469310607</v>
       </c>
       <c r="P41" t="n">
-        <v>60.23221703791668</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.23221703791668</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R41" t="n">
-        <v>60.23221703791668</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S41" t="n">
-        <v>60.23221703791668</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T41" t="n">
-        <v>60.23221703791668</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="U41" t="n">
-        <v>60.23221703791668</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="V41" t="n">
-        <v>60.23221703791668</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="W41" t="n">
-        <v>60.23221703791668</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="X41" t="n">
-        <v>45.02206122026095</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="Y41" t="n">
-        <v>29.81190540260523</v>
+        <v>29.81190540260514</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.204644340758334</v>
+        <v>46.83511179372538</v>
       </c>
       <c r="C42" t="n">
-        <v>1.204644340758334</v>
+        <v>46.83511179372538</v>
       </c>
       <c r="D42" t="n">
-        <v>1.204644340758334</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="E42" t="n">
-        <v>1.204644340758334</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="F42" t="n">
-        <v>1.204644340758334</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="G42" t="n">
-        <v>1.204644340758334</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H42" t="n">
-        <v>1.204644340758334</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I42" t="n">
-        <v>1.204644340758334</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J42" t="n">
-        <v>1.204644340758334</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K42" t="n">
-        <v>1.204644340758334</v>
+        <v>4.598115868451898</v>
       </c>
       <c r="L42" t="n">
-        <v>13.29499852785218</v>
+        <v>16.68847005554573</v>
       </c>
       <c r="M42" t="n">
-        <v>28.20247224473655</v>
+        <v>31.59594377243007</v>
       </c>
       <c r="N42" t="n">
-        <v>43.10994596162093</v>
+        <v>36.81568001349108</v>
       </c>
       <c r="O42" t="n">
-        <v>51.54902890335281</v>
+        <v>51.54902890335264</v>
       </c>
       <c r="P42" t="n">
-        <v>60.23221703791668</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q42" t="n">
-        <v>60.23221703791668</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R42" t="n">
-        <v>60.23221703791668</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S42" t="n">
-        <v>60.23221703791668</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="T42" t="n">
-        <v>45.02206122026095</v>
+        <v>46.83511179372538</v>
       </c>
       <c r="U42" t="n">
-        <v>29.81190540260523</v>
+        <v>46.83511179372538</v>
       </c>
       <c r="V42" t="n">
-        <v>29.81190540260523</v>
+        <v>46.83511179372538</v>
       </c>
       <c r="W42" t="n">
-        <v>29.81190540260523</v>
+        <v>46.83511179372538</v>
       </c>
       <c r="X42" t="n">
-        <v>29.81190540260523</v>
+        <v>46.83511179372538</v>
       </c>
       <c r="Y42" t="n">
-        <v>14.6017495849495</v>
+        <v>46.83511179372538</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.83511179372551</v>
+        <v>14.60174958494946</v>
       </c>
       <c r="C43" t="n">
-        <v>46.83511179372551</v>
+        <v>14.60174958494946</v>
       </c>
       <c r="D43" t="n">
-        <v>46.83511179372551</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E43" t="n">
-        <v>46.83511179372551</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F43" t="n">
-        <v>46.83511179372551</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G43" t="n">
-        <v>31.62495597606978</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H43" t="n">
-        <v>16.41480015841406</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I43" t="n">
-        <v>1.204644340758334</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J43" t="n">
-        <v>1.204644340758334</v>
+        <v>16.11211805764266</v>
       </c>
       <c r="K43" t="n">
-        <v>16.11211805764271</v>
+        <v>31.019591774527</v>
       </c>
       <c r="L43" t="n">
-        <v>30.41726960414793</v>
+        <v>45.92706549141133</v>
       </c>
       <c r="M43" t="n">
-        <v>30.41726960414793</v>
+        <v>45.92706549141133</v>
       </c>
       <c r="N43" t="n">
-        <v>45.3247433210323</v>
+        <v>45.92706549141133</v>
       </c>
       <c r="O43" t="n">
-        <v>45.3247433210323</v>
+        <v>45.92706549141133</v>
       </c>
       <c r="P43" t="n">
-        <v>45.3247433210323</v>
+        <v>45.92706549141133</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.23221703791668</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R43" t="n">
-        <v>46.83511179372551</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="S43" t="n">
-        <v>46.83511179372551</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T43" t="n">
-        <v>46.83511179372551</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="U43" t="n">
-        <v>46.83511179372551</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="V43" t="n">
-        <v>46.83511179372551</v>
+        <v>14.60174958494946</v>
       </c>
       <c r="W43" t="n">
-        <v>46.83511179372551</v>
+        <v>14.60174958494946</v>
       </c>
       <c r="X43" t="n">
-        <v>46.83511179372551</v>
+        <v>14.60174958494946</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.83511179372551</v>
+        <v>14.60174958494946</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>29.81190540260513</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="C44" t="n">
-        <v>16.41480015841401</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D44" t="n">
-        <v>16.41480015841401</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E44" t="n">
-        <v>16.41480015841401</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F44" t="n">
-        <v>16.41480015841401</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G44" t="n">
-        <v>16.41480015841401</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H44" t="n">
-        <v>16.41480015841401</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I44" t="n">
         <v>1.20464434075833</v>
@@ -7651,7 +7651,7 @@
         <v>1.20464434075833</v>
       </c>
       <c r="K44" t="n">
-        <v>3.44233071783486</v>
+        <v>3.442330717834865</v>
       </c>
       <c r="L44" t="n">
         <v>12.21491484027812</v>
@@ -7663,7 +7663,7 @@
         <v>42.02986227404679</v>
       </c>
       <c r="O44" t="n">
-        <v>54.87532469310606</v>
+        <v>54.87532469310607</v>
       </c>
       <c r="P44" t="n">
         <v>60.2322170379165</v>
@@ -7678,22 +7678,22 @@
         <v>45.02206122026082</v>
       </c>
       <c r="T44" t="n">
-        <v>29.81190540260513</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="U44" t="n">
-        <v>29.81190540260513</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="V44" t="n">
-        <v>29.81190540260513</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="W44" t="n">
-        <v>29.81190540260513</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="X44" t="n">
-        <v>29.81190540260513</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="Y44" t="n">
-        <v>29.81190540260513</v>
+        <v>31.62495597606969</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>45.02206122026082</v>
+      </c>
+      <c r="C45" t="n">
+        <v>45.02206122026082</v>
+      </c>
+      <c r="D45" t="n">
+        <v>29.81190540260513</v>
+      </c>
+      <c r="E45" t="n">
+        <v>29.81190540260513</v>
+      </c>
+      <c r="F45" t="n">
         <v>14.60174958494945</v>
-      </c>
-      <c r="C45" t="n">
-        <v>14.60174958494945</v>
-      </c>
-      <c r="D45" t="n">
-        <v>14.60174958494945</v>
-      </c>
-      <c r="E45" t="n">
-        <v>14.60174958494945</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1.20464434075833</v>
       </c>
       <c r="G45" t="n">
         <v>1.20464434075833</v>
@@ -7736,10 +7736,10 @@
         <v>16.68847005554573</v>
       </c>
       <c r="M45" t="n">
-        <v>21.90820629660674</v>
+        <v>31.59594377243006</v>
       </c>
       <c r="N45" t="n">
-        <v>36.81568001349108</v>
+        <v>46.5034174893144</v>
       </c>
       <c r="O45" t="n">
         <v>51.54902890335264</v>
@@ -7757,22 +7757,22 @@
         <v>45.02206122026082</v>
       </c>
       <c r="T45" t="n">
-        <v>29.81190540260513</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="U45" t="n">
-        <v>29.81190540260513</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="V45" t="n">
-        <v>14.60174958494945</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="W45" t="n">
-        <v>14.60174958494945</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="X45" t="n">
-        <v>14.60174958494945</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="Y45" t="n">
-        <v>14.60174958494945</v>
+        <v>45.02206122026082</v>
       </c>
     </row>
     <row r="46">
@@ -7785,19 +7785,19 @@
         <v>16.41480015841401</v>
       </c>
       <c r="C46" t="n">
-        <v>1.20464434075833</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="D46" t="n">
-        <v>1.20464434075833</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="E46" t="n">
-        <v>1.20464434075833</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="F46" t="n">
-        <v>1.20464434075833</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="G46" t="n">
-        <v>1.20464434075833</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="H46" t="n">
         <v>1.20464434075833</v>
@@ -7812,19 +7812,19 @@
         <v>31.01959177452699</v>
       </c>
       <c r="L46" t="n">
-        <v>45.92706549141133</v>
+        <v>31.01959177452699</v>
       </c>
       <c r="M46" t="n">
-        <v>60.2322170379165</v>
+        <v>45.32474332103217</v>
       </c>
       <c r="N46" t="n">
-        <v>60.2322170379165</v>
+        <v>45.32474332103217</v>
       </c>
       <c r="O46" t="n">
-        <v>60.2322170379165</v>
+        <v>45.32474332103217</v>
       </c>
       <c r="P46" t="n">
-        <v>60.2322170379165</v>
+        <v>45.32474332103217</v>
       </c>
       <c r="Q46" t="n">
         <v>60.2322170379165</v>
@@ -7833,16 +7833,16 @@
         <v>60.2322170379165</v>
       </c>
       <c r="S46" t="n">
-        <v>60.2322170379165</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T46" t="n">
-        <v>60.2322170379165</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="U46" t="n">
-        <v>45.02206122026082</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="V46" t="n">
-        <v>29.81190540260513</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="W46" t="n">
         <v>16.41480015841401</v>
@@ -7984,16 +7984,16 @@
         <v>12.61047343199521</v>
       </c>
       <c r="L2" t="n">
-        <v>9.587300011056811</v>
+        <v>9.587300011056808</v>
       </c>
       <c r="M2" t="n">
         <v>5.4694522901083</v>
       </c>
       <c r="N2" t="n">
-        <v>4.80063671441944</v>
+        <v>4.800636714419433</v>
       </c>
       <c r="O2" t="n">
-        <v>6.7219737584977</v>
+        <v>6.721973758497697</v>
       </c>
       <c r="P2" t="n">
         <v>11.40009215480153</v>
@@ -8060,7 +8060,7 @@
         <v>11.40976353962329</v>
       </c>
       <c r="K3" t="n">
-        <v>6.672659757291241</v>
+        <v>6.672659757291239</v>
       </c>
       <c r="L3" t="n">
         <v>1.368767089206766</v>
@@ -8224,7 +8224,7 @@
         <v>7.727993863709251</v>
       </c>
       <c r="M5" t="n">
-        <v>3.400615951243275</v>
+        <v>3.400615951243282</v>
       </c>
       <c r="N5" t="n">
         <v>2.698324440689774</v>
@@ -8382,7 +8382,7 @@
         <v>8.993937537569462</v>
       </c>
       <c r="M7" t="n">
-        <v>8.948026908651901</v>
+        <v>8.948026908651903</v>
       </c>
       <c r="N7" t="n">
         <v>7.445517414732592</v>
@@ -8455,7 +8455,7 @@
         <v>11.687419793854</v>
       </c>
       <c r="K8" t="n">
-        <v>9.188120483615119</v>
+        <v>9.188120483615116</v>
       </c>
       <c r="L8" t="n">
         <v>5.341568553442613</v>
@@ -8470,7 +8470,7 @@
         <v>2.188868639101635</v>
       </c>
       <c r="P8" t="n">
-        <v>7.531191812490526</v>
+        <v>7.531191812490523</v>
       </c>
       <c r="Q8" t="n">
         <v>13.562754156455</v>
@@ -8552,7 +8552,7 @@
         <v>0.424509749335602</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.477581017613941</v>
+        <v>8.477581017613943</v>
       </c>
       <c r="R9" t="n">
         <v>16.73234637554063</v>
@@ -8613,7 +8613,7 @@
         <v>14.01088610452265</v>
       </c>
       <c r="K10" t="n">
-        <v>10.07631485409217</v>
+        <v>10.07631485409216</v>
       </c>
       <c r="L10" t="n">
         <v>7.985433933586291</v>
@@ -8692,7 +8692,7 @@
         <v>10.58480914680515</v>
       </c>
       <c r="K11" t="n">
-        <v>7.5355929460132</v>
+        <v>7.535592946013203</v>
       </c>
       <c r="L11" t="n">
         <v>3.291462016566818</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>5.66304307028302</v>
+        <v>5.663043070283024</v>
       </c>
       <c r="Q11" t="n">
         <v>12.15985225202051</v>
@@ -8768,10 +8768,10 @@
         <v>12.08427667672422</v>
       </c>
       <c r="J12" t="n">
-        <v>9.393027825252627</v>
+        <v>9.393027825252629</v>
       </c>
       <c r="K12" t="n">
-        <v>3.225737200493288</v>
+        <v>3.225737200493292</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.590305095014385</v>
+        <v>7.590305095014386</v>
       </c>
       <c r="R12" t="n">
         <v>16.30078102506237</v>
@@ -8847,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>13.59888901882769</v>
+        <v>13.5988890188277</v>
       </c>
       <c r="K13" t="n">
-        <v>9.399277081791602</v>
+        <v>9.399277081791604</v>
       </c>
       <c r="L13" t="n">
-        <v>7.119058680988218</v>
+        <v>7.119058680988219</v>
       </c>
       <c r="M13" t="n">
-        <v>6.971230031800342</v>
+        <v>6.971230031800346</v>
       </c>
       <c r="N13" t="n">
-        <v>5.515724349254292</v>
+        <v>5.515724349254294</v>
       </c>
       <c r="O13" t="n">
-        <v>8.428883322910336</v>
+        <v>8.428883322910337</v>
       </c>
       <c r="P13" t="n">
         <v>10.34122471567624</v>
@@ -8929,7 +8929,7 @@
         <v>10.58480914680515</v>
       </c>
       <c r="K14" t="n">
-        <v>7.5355929460132</v>
+        <v>7.535592946013203</v>
       </c>
       <c r="L14" t="n">
         <v>3.291462016566818</v>
@@ -9005,10 +9005,10 @@
         <v>12.08427667672422</v>
       </c>
       <c r="J15" t="n">
-        <v>9.393027825252627</v>
+        <v>9.393027825252629</v>
       </c>
       <c r="K15" t="n">
-        <v>3.225737200493288</v>
+        <v>3.225737200493292</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9084,19 +9084,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>13.59888901882769</v>
+        <v>13.5988890188277</v>
       </c>
       <c r="K16" t="n">
         <v>9.399277081791604</v>
       </c>
       <c r="L16" t="n">
-        <v>7.119058680988218</v>
+        <v>7.119058680988219</v>
       </c>
       <c r="M16" t="n">
-        <v>6.971230031800344</v>
+        <v>6.971230031800346</v>
       </c>
       <c r="N16" t="n">
-        <v>5.515724349254292</v>
+        <v>5.515724349254294</v>
       </c>
       <c r="O16" t="n">
         <v>8.428883322910337</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>7.415995117306377</v>
+        <v>10.85208127554232</v>
       </c>
       <c r="K17" t="n">
-        <v>2.786362146091506</v>
+        <v>2.786362146091513</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.2941343268911041</v>
+        <v>0.2941343268911112</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.128025379424038</v>
+        <v>8.128025379424045</v>
       </c>
       <c r="R17" t="n">
-        <v>22.18329412606468</v>
+        <v>18.74720796782874</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>11.39649556952178</v>
       </c>
       <c r="J18" t="n">
-        <v>7.505703897832522</v>
+        <v>7.505703897832523</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.040345688132867</v>
+        <v>5.040345688132874</v>
       </c>
       <c r="R18" t="n">
         <v>15.06049703097857</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>18.70547448680105</v>
+        <v>18.45130754344584</v>
       </c>
       <c r="K19" t="n">
-        <v>13.74415700270558</v>
+        <v>13.74415700270557</v>
       </c>
       <c r="L19" t="n">
-        <v>10.66563101789333</v>
+        <v>10.91979796124853</v>
       </c>
       <c r="M19" t="n">
-        <v>4.345987427773775</v>
+        <v>4.345987427773778</v>
       </c>
       <c r="N19" t="n">
-        <v>2.952904146645739</v>
+        <v>9.243535994687214</v>
       </c>
       <c r="O19" t="n">
-        <v>6.061704061331426</v>
+        <v>6.061704061331429</v>
       </c>
       <c r="P19" t="n">
-        <v>8.315693914541319</v>
+        <v>8.315693914541322</v>
       </c>
       <c r="Q19" t="n">
-        <v>21.17224375489847</v>
+        <v>14.881611906857</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>7.415995117306377</v>
+        <v>7.415995117306384</v>
       </c>
       <c r="K20" t="n">
-        <v>2.786362146091506</v>
+        <v>2.786362146091513</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>3.730220485127042</v>
+        <v>0.2941343268911112</v>
       </c>
       <c r="Q20" t="n">
-        <v>8.128025379424038</v>
+        <v>8.128025379424045</v>
       </c>
       <c r="R20" t="n">
-        <v>18.74720796782874</v>
+        <v>22.18329412606468</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>11.39649556952178</v>
       </c>
       <c r="J21" t="n">
-        <v>7.505703897832522</v>
+        <v>7.505703897832523</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.040345688132867</v>
+        <v>5.040345688132874</v>
       </c>
       <c r="R21" t="n">
         <v>15.06049703097857</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.41484263875957</v>
+        <v>12.41484263875958</v>
       </c>
       <c r="K22" t="n">
-        <v>7.453525154664099</v>
+        <v>7.453525154664103</v>
       </c>
       <c r="L22" t="n">
-        <v>4.629166113207059</v>
+        <v>4.629166113207063</v>
       </c>
       <c r="M22" t="n">
         <v>10.38245233246004</v>
       </c>
       <c r="N22" t="n">
-        <v>9.243535994687218</v>
+        <v>9.243535994687214</v>
       </c>
       <c r="O22" t="n">
         <v>12.3523359093729</v>
       </c>
       <c r="P22" t="n">
-        <v>14.6063257625828</v>
+        <v>14.60632576258279</v>
       </c>
       <c r="Q22" t="n">
         <v>14.881611906857</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>4.048734084456797</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.84370531743626</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R23" t="n">
-        <v>16.25505095986411</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.66564216510812</v>
       </c>
       <c r="J24" t="n">
-        <v>5.500186294714744</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.330695053476177</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R24" t="n">
         <v>13.7425402420767</v>
@@ -9798,25 +9798,25 @@
         <v>11.15664534489041</v>
       </c>
       <c r="K25" t="n">
-        <v>5.385920497900834</v>
+        <v>5.385920497900839</v>
       </c>
       <c r="L25" t="n">
-        <v>17.04139826339775</v>
+        <v>17.04139826339774</v>
       </c>
       <c r="M25" t="n">
-        <v>16.61439324464189</v>
+        <v>16.61439324464188</v>
       </c>
       <c r="N25" t="n">
-        <v>14.67923533560206</v>
+        <v>14.67923533560205</v>
       </c>
       <c r="O25" t="n">
-        <v>18.60433443948387</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P25" t="n">
-        <v>6.163314231162722</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.39141578060923</v>
+        <v>28.44947004008836</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>4.048734084456797</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.84370531743626</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R26" t="n">
-        <v>16.25505095986411</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.66564216510812</v>
       </c>
       <c r="J27" t="n">
-        <v>5.500186294714744</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.330695053476177</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R27" t="n">
         <v>13.7425402420767</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>11.15664534489041</v>
+        <v>25.60629337166331</v>
       </c>
       <c r="K28" t="n">
-        <v>5.385920497900834</v>
+        <v>20.44397475737997</v>
       </c>
       <c r="L28" t="n">
-        <v>17.04139826339775</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M28" t="n">
-        <v>16.61439324464189</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N28" t="n">
-        <v>14.67923533560206</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O28" t="n">
-        <v>3.546280180004722</v>
+        <v>18.60433443948386</v>
       </c>
       <c r="P28" t="n">
-        <v>6.163314231162722</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q28" t="n">
-        <v>28.44947004008838</v>
+        <v>28.44947004008836</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>4.048734084456797</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.84370531743626</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R29" t="n">
-        <v>16.25505095986411</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.66564216510812</v>
       </c>
       <c r="J30" t="n">
-        <v>5.500186294714744</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.330695053476177</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R30" t="n">
         <v>13.7425402420767</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>26.21469960436956</v>
+        <v>26.21469960436954</v>
       </c>
       <c r="K31" t="n">
-        <v>5.385920497900834</v>
+        <v>20.44397475737997</v>
       </c>
       <c r="L31" t="n">
-        <v>1.983344003918603</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M31" t="n">
-        <v>16.61439324464189</v>
+        <v>16.00598701193565</v>
       </c>
       <c r="N31" t="n">
-        <v>15.28764156830829</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O31" t="n">
-        <v>17.99592820677764</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P31" t="n">
-        <v>6.163314231162722</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.39141578060923</v>
+        <v>28.44947004008836</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>4.048734084456797</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.84370531743626</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R32" t="n">
-        <v>16.25505095986411</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.66564216510812</v>
       </c>
       <c r="J33" t="n">
-        <v>5.500186294714744</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.330695053476177</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R33" t="n">
         <v>13.7425402420767</v>
@@ -10506,25 +10506,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.15664534489041</v>
+        <v>25.60629337166331</v>
       </c>
       <c r="K34" t="n">
-        <v>5.385920497900834</v>
+        <v>20.44397475737997</v>
       </c>
       <c r="L34" t="n">
-        <v>1.983344003918603</v>
+        <v>17.04139826339774</v>
       </c>
       <c r="M34" t="n">
-        <v>16.61439324464189</v>
+        <v>16.61439324464188</v>
       </c>
       <c r="N34" t="n">
-        <v>15.28764156830829</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O34" t="n">
-        <v>18.60433443948387</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P34" t="n">
-        <v>20.61296225793565</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q34" t="n">
         <v>13.39141578060923</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>4.048734084456797</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.84370531743626</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R35" t="n">
-        <v>16.25505095986411</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.66564216510812</v>
       </c>
       <c r="J36" t="n">
-        <v>5.500186294714744</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.330695053476177</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R36" t="n">
         <v>13.7425402420767</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>26.21469960436956</v>
+        <v>26.21469960436954</v>
       </c>
       <c r="K37" t="n">
-        <v>20.44397475737998</v>
+        <v>20.44397475737997</v>
       </c>
       <c r="L37" t="n">
-        <v>16.43299203069153</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M37" t="n">
-        <v>1.556338985162739</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N37" t="n">
-        <v>0.2295873088291422</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O37" t="n">
-        <v>3.546280180004722</v>
+        <v>18.60433443948386</v>
       </c>
       <c r="P37" t="n">
-        <v>6.163314231162722</v>
+        <v>20.61296225793563</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.44947004008838</v>
+        <v>13.39141578060923</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>4.048734084456797</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.84370531743626</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R38" t="n">
-        <v>16.25505095986411</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.66564216510812</v>
       </c>
       <c r="J39" t="n">
-        <v>5.500186294714744</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.330695053476177</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R39" t="n">
         <v>13.7425402420767</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>26.21469960436956</v>
+        <v>26.21469960436954</v>
       </c>
       <c r="K40" t="n">
-        <v>5.385920497900834</v>
+        <v>20.44397475737997</v>
       </c>
       <c r="L40" t="n">
-        <v>16.43299203069153</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M40" t="n">
-        <v>1.556338985162739</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N40" t="n">
-        <v>0.2295873088291422</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O40" t="n">
-        <v>18.60433443948387</v>
+        <v>18.60433443948386</v>
       </c>
       <c r="P40" t="n">
-        <v>21.22136849064187</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.39141578060923</v>
+        <v>27.84106380738213</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>4.048734084456797</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>3.84370531743626</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R41" t="n">
-        <v>16.25505095986411</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.66564216510812</v>
       </c>
       <c r="J42" t="n">
-        <v>5.500186294714744</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.330695053476177</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R42" t="n">
         <v>13.7425402420767</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.15664534489041</v>
+        <v>26.21469960436954</v>
       </c>
       <c r="K43" t="n">
-        <v>20.44397475738</v>
+        <v>20.44397475737997</v>
       </c>
       <c r="L43" t="n">
-        <v>16.43299203069155</v>
+        <v>17.04139826339774</v>
       </c>
       <c r="M43" t="n">
-        <v>1.556338985162739</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N43" t="n">
-        <v>15.28764156830831</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O43" t="n">
-        <v>3.546280180004722</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P43" t="n">
-        <v>6.163314231162722</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.4494700400884</v>
+        <v>27.84106380738213</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11460,7 +11460,7 @@
         <v>20.44397475737996</v>
       </c>
       <c r="L46" t="n">
-        <v>17.04139826339773</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M46" t="n">
         <v>16.00598701193565</v>
@@ -11475,7 +11475,7 @@
         <v>6.163314231162726</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.39141578060923</v>
+        <v>28.44947004008836</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>415.4265386055795</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -23752,7 +23752,7 @@
         <v>292.2345970210142</v>
       </c>
       <c r="I17" t="n">
-        <v>18.26233308201761</v>
+        <v>24.55296493005908</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>91.12521057153312</v>
+        <v>91.12521057153313</v>
       </c>
       <c r="T17" t="n">
-        <v>211.2907935876461</v>
+        <v>217.5814254356876</v>
       </c>
       <c r="U17" t="n">
-        <v>250.2098313586512</v>
+        <v>250.2098313586513</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>347.6238888769715</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>122.0969507941071</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C18" t="n">
         <v>116.3308444476703</v>
@@ -23822,7 +23822,7 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F18" t="n">
-        <v>92.70937201392488</v>
+        <v>86.41874016588341</v>
       </c>
       <c r="G18" t="n">
         <v>92.97452028251483</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>77.93445730202359</v>
+        <v>72.39366877026866</v>
       </c>
       <c r="T18" t="n">
-        <v>139.902022460603</v>
+        <v>133.6113906125615</v>
       </c>
       <c r="U18" t="n">
         <v>182.9113882128454</v>
       </c>
       <c r="V18" t="n">
-        <v>202.9234074721264</v>
+        <v>196.6327756240849</v>
       </c>
       <c r="W18" t="n">
-        <v>188.2655315470735</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X18" t="n">
-        <v>155.5519409229622</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y18" t="n">
-        <v>132.005327912199</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="19">
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>35.04864028407143</v>
+        <v>35.04864028407144</v>
       </c>
       <c r="S19" t="n">
         <v>160.1163957633078</v>
       </c>
       <c r="T19" t="n">
-        <v>234.8682775979309</v>
+        <v>240.4090661296859</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3762607615072</v>
+        <v>271.0856289134657</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>273.3535641862965</v>
       </c>
       <c r="W19" t="n">
-        <v>265.8132479411706</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -23971,7 +23971,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>416.3410908387914</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -23980,7 +23980,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>414.5823081444523</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.0364165471253</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>91.12521057153312</v>
+        <v>91.87505388781967</v>
       </c>
       <c r="T20" t="n">
-        <v>212.0406369039327</v>
+        <v>211.2907935876461</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7506198904062</v>
+        <v>249.4599880423647</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>347.6238888769715</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -24062,7 +24062,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>92.97452028251483</v>
+        <v>87.4337317507599</v>
       </c>
       <c r="H21" t="n">
         <v>51.50264919965579</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>71.6438254539821</v>
+        <v>71.64382545398212</v>
       </c>
       <c r="T21" t="n">
         <v>133.6113906125615</v>
@@ -24116,7 +24116,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y21" t="n">
-        <v>132.7551712284856</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>182.7235204931901</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>35.04864028407143</v>
+        <v>41.33927213211291</v>
       </c>
       <c r="S22" t="n">
-        <v>160.1163957633078</v>
+        <v>166.4070276113493</v>
       </c>
       <c r="T22" t="n">
-        <v>240.4090661296859</v>
+        <v>234.1184342816444</v>
       </c>
       <c r="U22" t="n">
         <v>277.3762607615072</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>272.6037208700099</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>265.8132479411706</v>
       </c>
       <c r="X22" t="n">
-        <v>233.8476257406114</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5385520954004</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24214,19 +24214,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>406.6591161941419</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>405.8148857330146</v>
+        <v>407.6098058007445</v>
       </c>
       <c r="G23" t="n">
-        <v>386.7336085924889</v>
+        <v>384.938688524759</v>
       </c>
       <c r="H23" t="n">
-        <v>276.7702338373663</v>
+        <v>291.8282880968454</v>
       </c>
       <c r="I23" t="n">
-        <v>23.02344218634935</v>
+        <v>23.02344218634936</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>96.51177654778196</v>
+        <v>81.45372228830286</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4077535386488</v>
+        <v>202.3496992791696</v>
       </c>
       <c r="U23" t="n">
         <v>255.7474459893752</v>
@@ -24287,13 +24287,13 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C24" t="n">
-        <v>103.067710255921</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D24" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E24" t="n">
-        <v>88.59686013031299</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F24" t="n">
         <v>92.70937201392488</v>
@@ -24335,19 +24335,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>77.54016887301826</v>
+        <v>77.54016887301827</v>
       </c>
       <c r="T24" t="n">
-        <v>139.8164614059971</v>
+        <v>124.758407146518</v>
       </c>
       <c r="U24" t="n">
-        <v>182.9099916776777</v>
+        <v>167.8519374181986</v>
       </c>
       <c r="V24" t="n">
-        <v>187.8653532126472</v>
+        <v>187.8653532126473</v>
       </c>
       <c r="W24" t="n">
-        <v>179.4981091356358</v>
+        <v>181.2930292033658</v>
       </c>
       <c r="X24" t="n">
         <v>161.8425727710037</v>
@@ -24369,10 +24369,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>146.6255508850179</v>
       </c>
       <c r="E25" t="n">
-        <v>149.4880695291958</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -24384,7 +24384,7 @@
         <v>141.1661303916059</v>
       </c>
       <c r="I25" t="n">
-        <v>94.73845284923043</v>
+        <v>94.73845284923044</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>40.53908648012926</v>
       </c>
       <c r="S25" t="n">
-        <v>152.8337527210856</v>
+        <v>166.0968869128348</v>
       </c>
       <c r="T25" t="n">
         <v>240.3330274607752</v>
@@ -24423,10 +24423,10 @@
         <v>262.3172357956164</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>263.8362984585722</v>
       </c>
       <c r="W25" t="n">
-        <v>257.045825529733</v>
+        <v>258.8407455974629</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -24457,13 +24457,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>399.9967427842381</v>
+        <v>384.938688524759</v>
       </c>
       <c r="H26" t="n">
-        <v>276.7702338373663</v>
+        <v>291.8282880968454</v>
       </c>
       <c r="I26" t="n">
-        <v>23.02344218634935</v>
+        <v>23.02344218634936</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>81.45372228830281</v>
+        <v>81.45372228830286</v>
       </c>
       <c r="T26" t="n">
-        <v>202.3496992791696</v>
+        <v>217.4077535386488</v>
       </c>
       <c r="U26" t="n">
-        <v>242.484311797626</v>
+        <v>240.6893917298961</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -24508,7 +24508,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>394.339664652181</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24536,10 +24536,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>92.95329294796625</v>
+        <v>77.89523868848713</v>
       </c>
       <c r="H27" t="n">
-        <v>38.03450364529269</v>
+        <v>51.29763783704193</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24572,16 +24572,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>62.48211461353911</v>
+        <v>62.48211461353915</v>
       </c>
       <c r="T27" t="n">
         <v>124.758407146518</v>
       </c>
       <c r="U27" t="n">
-        <v>182.9099916776777</v>
+        <v>169.6468574859285</v>
       </c>
       <c r="V27" t="n">
-        <v>187.8653532126472</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W27" t="n">
         <v>194.556163395115</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>175.0011748331958</v>
       </c>
       <c r="C28" t="n">
-        <v>155.194783230394</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -24621,7 +24621,7 @@
         <v>141.1661303916059</v>
       </c>
       <c r="I28" t="n">
-        <v>94.73845284923043</v>
+        <v>94.73845284923044</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>40.53908648012926</v>
       </c>
       <c r="S28" t="n">
-        <v>166.0968869128348</v>
+        <v>151.0388326533557</v>
       </c>
       <c r="T28" t="n">
-        <v>240.3330274607752</v>
+        <v>225.2749732012961</v>
       </c>
       <c r="U28" t="n">
-        <v>262.3172357956164</v>
+        <v>277.3752900550955</v>
       </c>
       <c r="V28" t="n">
-        <v>263.8362984585722</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>258.8407455974629</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>209.0212863676763</v>
       </c>
     </row>
     <row r="29">
@@ -24688,19 +24688,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>406.6591161941419</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>405.8148857330146</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>386.7336085924888</v>
+        <v>384.938688524759</v>
       </c>
       <c r="H29" t="n">
         <v>291.8282880968454</v>
       </c>
       <c r="I29" t="n">
-        <v>23.02344218634935</v>
+        <v>23.02344218634936</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>96.51177654778196</v>
+        <v>81.45372228830286</v>
       </c>
       <c r="T29" t="n">
         <v>217.4077535386488</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7474459893752</v>
+        <v>240.6893917298961</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24745,10 +24745,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>392.5447445844511</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>388.0207631529094</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>114.3746051341128</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C30" t="n">
         <v>116.3308444476703</v>
@@ -24770,10 +24770,10 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F30" t="n">
-        <v>92.70937201392488</v>
+        <v>77.65131775444576</v>
       </c>
       <c r="G30" t="n">
-        <v>92.95329294796625</v>
+        <v>77.89523868848713</v>
       </c>
       <c r="H30" t="n">
         <v>51.29763783704193</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>77.54016887301826</v>
+        <v>77.54016887301827</v>
       </c>
       <c r="T30" t="n">
-        <v>139.8164614059971</v>
+        <v>124.758407146518</v>
       </c>
       <c r="U30" t="n">
-        <v>182.9099916776777</v>
+        <v>169.6468574859285</v>
       </c>
       <c r="V30" t="n">
         <v>202.9234074721264</v>
       </c>
       <c r="W30" t="n">
-        <v>179.4981091356358</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X30" t="n">
-        <v>146.7845185115246</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y30" t="n">
-        <v>123.2379055007614</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="31">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>175.0011748331958</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -24846,19 +24846,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>149.4880695291958</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>155.085102223706</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>149.4022564898391</v>
+        <v>164.4603107493182</v>
       </c>
       <c r="H31" t="n">
         <v>141.1661303916059</v>
       </c>
       <c r="I31" t="n">
-        <v>94.73845284923043</v>
+        <v>94.73845284923044</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>166.0968869128348</v>
       </c>
       <c r="T31" t="n">
-        <v>240.3330274607752</v>
+        <v>227.069893269026</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3752900550955</v>
+        <v>262.3172357956164</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>263.8362984585722</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>257.045825529733</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -24919,7 +24919,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>407.5736684273537</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -24928,16 +24928,16 @@
         <v>406.6591161941419</v>
       </c>
       <c r="F32" t="n">
-        <v>407.6098058007445</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>399.9967427842381</v>
       </c>
       <c r="H32" t="n">
-        <v>276.7702338373663</v>
+        <v>278.5651539050962</v>
       </c>
       <c r="I32" t="n">
-        <v>23.02344218634935</v>
+        <v>23.02344218634936</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.51177654778196</v>
+        <v>81.45372228830286</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4077535386488</v>
+        <v>202.3496992791696</v>
       </c>
       <c r="U32" t="n">
         <v>255.7474459893752</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>62.48211461353911</v>
+        <v>62.48211461353915</v>
       </c>
       <c r="T33" t="n">
         <v>139.8164614059971</v>
@@ -25055,10 +25055,10 @@
         <v>167.8519374181986</v>
       </c>
       <c r="V33" t="n">
-        <v>189.6602732803772</v>
+        <v>187.8653532126473</v>
       </c>
       <c r="W33" t="n">
-        <v>179.4981091356358</v>
+        <v>181.2930292033658</v>
       </c>
       <c r="X33" t="n">
         <v>161.8425727710037</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.2062547654658</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>155.194783230394</v>
@@ -25089,13 +25089,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>151.197176557569</v>
+        <v>164.4603107493182</v>
       </c>
       <c r="H34" t="n">
         <v>141.1661303916059</v>
       </c>
       <c r="I34" t="n">
-        <v>94.73845284923043</v>
+        <v>94.73845284923044</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>166.0968869128348</v>
       </c>
       <c r="T34" t="n">
-        <v>240.3330274607752</v>
+        <v>227.069893269026</v>
       </c>
       <c r="U34" t="n">
         <v>277.3752900550955</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>263.8362984585722</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>257.045825529733</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>209.0212863676762</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25162,7 +25162,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>408.4540362618717</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -25171,10 +25171,10 @@
         <v>399.9967427842381</v>
       </c>
       <c r="H35" t="n">
-        <v>291.8282880968454</v>
+        <v>278.5651539050962</v>
       </c>
       <c r="I35" t="n">
-        <v>23.02344218634935</v>
+        <v>23.02344218634936</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>96.51177654778196</v>
+        <v>81.45372228830286</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4077535386488</v>
+        <v>202.3496992791696</v>
       </c>
       <c r="U35" t="n">
         <v>255.7474459893752</v>
@@ -25216,10 +25216,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>377.3693819431774</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>392.5447445844511</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25238,16 +25238,16 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D36" t="n">
-        <v>89.53842470811858</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E36" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F36" t="n">
-        <v>92.70937201392488</v>
+        <v>77.65131775444576</v>
       </c>
       <c r="G36" t="n">
-        <v>92.95329294796625</v>
+        <v>77.89523868848713</v>
       </c>
       <c r="H36" t="n">
         <v>51.29763783704193</v>
@@ -25283,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>77.54016887301826</v>
+        <v>64.27703468126906</v>
       </c>
       <c r="T36" t="n">
         <v>139.8164614059971</v>
       </c>
       <c r="U36" t="n">
-        <v>167.8519374181986</v>
+        <v>182.9099916776777</v>
       </c>
       <c r="V36" t="n">
-        <v>187.8653532126472</v>
+        <v>187.8653532126473</v>
       </c>
       <c r="W36" t="n">
-        <v>179.4981091356358</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X36" t="n">
         <v>161.8425727710037</v>
@@ -25314,7 +25314,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>155.194783230394</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25332,7 +25332,7 @@
         <v>141.1661303916059</v>
       </c>
       <c r="I37" t="n">
-        <v>94.73845284923043</v>
+        <v>94.73845284923044</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>25.48103222065011</v>
+        <v>40.53908648012926</v>
       </c>
       <c r="S37" t="n">
-        <v>166.0968869128348</v>
+        <v>152.8337527210856</v>
       </c>
       <c r="T37" t="n">
-        <v>227.069893269026</v>
+        <v>225.2749732012961</v>
       </c>
       <c r="U37" t="n">
-        <v>262.3172357956164</v>
+        <v>277.3752900550955</v>
       </c>
       <c r="V37" t="n">
         <v>263.8362984585722</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>400.5918263891356</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>407.5736684273537</v>
+        <v>409.3685884950837</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>406.6591161941419</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -25411,7 +25411,7 @@
         <v>291.8282880968454</v>
       </c>
       <c r="I38" t="n">
-        <v>23.02344218634935</v>
+        <v>23.02344218634936</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>96.51177654778196</v>
+        <v>81.45372228830286</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4077535386488</v>
+        <v>202.3496992791696</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7474459893752</v>
+        <v>240.6893917298961</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25459,7 +25459,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>388.0207631529093</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25481,10 +25481,10 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F39" t="n">
-        <v>77.65131775444573</v>
+        <v>79.44623782217568</v>
       </c>
       <c r="G39" t="n">
-        <v>77.8952386884871</v>
+        <v>77.89523868848713</v>
       </c>
       <c r="H39" t="n">
         <v>51.29763783704193</v>
@@ -25520,16 +25520,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>77.54016887301826</v>
+        <v>62.48211461353915</v>
       </c>
       <c r="T39" t="n">
-        <v>139.8164614059971</v>
+        <v>124.758407146518</v>
       </c>
       <c r="U39" t="n">
-        <v>169.6468574859285</v>
+        <v>182.9099916776777</v>
       </c>
       <c r="V39" t="n">
-        <v>187.8653532126472</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W39" t="n">
         <v>194.556163395115</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>173.2062547654659</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -25566,10 +25566,10 @@
         <v>164.4603107493182</v>
       </c>
       <c r="H40" t="n">
-        <v>127.9029961998567</v>
+        <v>141.1661303916059</v>
       </c>
       <c r="I40" t="n">
-        <v>79.68039858975128</v>
+        <v>94.73845284923044</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>40.53908648012926</v>
       </c>
       <c r="S40" t="n">
-        <v>166.0968869128348</v>
+        <v>151.0388326533557</v>
       </c>
       <c r="T40" t="n">
-        <v>225.274973201296</v>
+        <v>225.2749732012961</v>
       </c>
       <c r="U40" t="n">
         <v>277.3752900550955</v>
@@ -25614,7 +25614,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>225.0802033291738</v>
+        <v>226.8751233969037</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>400.5918263891356</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>407.5736684273537</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25639,16 +25639,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>407.6098058007445</v>
       </c>
       <c r="G41" t="n">
-        <v>386.7336085924888</v>
+        <v>399.9967427842381</v>
       </c>
       <c r="H41" t="n">
         <v>291.8282880968454</v>
       </c>
       <c r="I41" t="n">
-        <v>23.02344218634935</v>
+        <v>23.02344218634936</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>96.51177654778196</v>
+        <v>81.45372228830286</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4077535386488</v>
+        <v>202.3496992791696</v>
       </c>
       <c r="U41" t="n">
         <v>255.7474459893752</v>
@@ -25693,10 +25693,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>392.5447445844511</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2258430851794</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25706,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>114.3746051341128</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C42" t="n">
         <v>116.3308444476703</v>
       </c>
       <c r="D42" t="n">
-        <v>102.8015588998678</v>
+        <v>87.74350464038869</v>
       </c>
       <c r="E42" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F42" t="n">
-        <v>92.70937201392488</v>
+        <v>77.65131775444576</v>
       </c>
       <c r="G42" t="n">
-        <v>92.95329294796625</v>
+        <v>77.89523868848713</v>
       </c>
       <c r="H42" t="n">
         <v>51.29763783704193</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>77.54016887301826</v>
+        <v>77.54016887301827</v>
       </c>
       <c r="T42" t="n">
-        <v>124.7584071465179</v>
+        <v>126.5533272142479</v>
       </c>
       <c r="U42" t="n">
-        <v>167.8519374181985</v>
+        <v>182.9099916776777</v>
       </c>
       <c r="V42" t="n">
         <v>202.9234074721264</v>
@@ -25775,7 +25775,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y42" t="n">
-        <v>123.2379055007614</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="43">
@@ -25791,7 +25791,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>148.4204709527478</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25800,13 +25800,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>149.402256489839</v>
+        <v>164.4603107493182</v>
       </c>
       <c r="H43" t="n">
-        <v>126.1080761321268</v>
+        <v>141.1661303916059</v>
       </c>
       <c r="I43" t="n">
-        <v>79.68039858975126</v>
+        <v>94.73845284923044</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>27.27595228838</v>
+        <v>25.48103222065013</v>
       </c>
       <c r="S43" t="n">
         <v>166.0968869128348</v>
       </c>
       <c r="T43" t="n">
-        <v>240.3330274607752</v>
+        <v>225.2749732012961</v>
       </c>
       <c r="U43" t="n">
         <v>277.3752900550955</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>263.8362984585722</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>400.5918263891356</v>
       </c>
       <c r="C44" t="n">
-        <v>409.3685884950837</v>
+        <v>407.5736684273537</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -25885,7 +25885,7 @@
         <v>291.8282880968454</v>
       </c>
       <c r="I44" t="n">
-        <v>7.965387926870232</v>
+        <v>23.02344218634936</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>81.45372228830286</v>
       </c>
       <c r="T44" t="n">
-        <v>202.3496992791696</v>
+        <v>204.1446193468996</v>
       </c>
       <c r="U44" t="n">
         <v>255.7474459893752</v>
@@ -25949,16 +25949,16 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D45" t="n">
-        <v>102.8015588998678</v>
+        <v>87.74350464038869</v>
       </c>
       <c r="E45" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F45" t="n">
-        <v>79.44623782217568</v>
+        <v>77.65131775444576</v>
       </c>
       <c r="G45" t="n">
-        <v>92.95329294796625</v>
+        <v>79.69015875621704</v>
       </c>
       <c r="H45" t="n">
         <v>51.29763783704193</v>
@@ -25997,13 +25997,13 @@
         <v>62.48211461353915</v>
       </c>
       <c r="T45" t="n">
-        <v>124.758407146518</v>
+        <v>139.8164614059971</v>
       </c>
       <c r="U45" t="n">
         <v>182.9099916776777</v>
       </c>
       <c r="V45" t="n">
-        <v>187.8653532126473</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W45" t="n">
         <v>194.556163395115</v>
@@ -26025,7 +26025,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>155.194783230394</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26040,7 +26040,7 @@
         <v>164.4603107493182</v>
       </c>
       <c r="H46" t="n">
-        <v>141.1661303916059</v>
+        <v>126.1080761321268</v>
       </c>
       <c r="I46" t="n">
         <v>94.73845284923044</v>
@@ -26073,19 +26073,19 @@
         <v>40.53908648012926</v>
       </c>
       <c r="S46" t="n">
-        <v>166.0968869128348</v>
+        <v>151.0388326533557</v>
       </c>
       <c r="T46" t="n">
-        <v>240.3330274607752</v>
+        <v>225.2749732012961</v>
       </c>
       <c r="U46" t="n">
-        <v>262.3172357956164</v>
+        <v>264.1121558633463</v>
       </c>
       <c r="V46" t="n">
-        <v>263.8362984585722</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>258.8407455974629</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66098.95736059935</v>
+        <v>66098.95736059936</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66098.95736059935</v>
+        <v>66098.95736059936</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>73271.18209481076</v>
+        <v>73271.18209481071</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>73271.18209481076</v>
+        <v>73271.18209481072</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>73271.18209481075</v>
+        <v>73271.18209481072</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>73271.18209481076</v>
+        <v>73271.18209481072</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>73271.18209481075</v>
+        <v>73271.18209481072</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>73271.18209481075</v>
+        <v>73271.18209481069</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>73271.18209481071</v>
+        <v>73271.18209481072</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>13308.80239179503</v>
       </c>
       <c r="E2" t="n">
-        <v>13342.73517000119</v>
+        <v>13342.73517000118</v>
       </c>
       <c r="F2" t="n">
-        <v>13342.73517000119</v>
+        <v>13342.73517000118</v>
       </c>
       <c r="G2" t="n">
         <v>14598.6370959159</v>
@@ -26340,22 +26340,22 @@
         <v>16316.73223919226</v>
       </c>
       <c r="K2" t="n">
-        <v>16316.73223919227</v>
+        <v>16316.73223919226</v>
       </c>
       <c r="L2" t="n">
-        <v>16316.73223919227</v>
+        <v>16316.73223919226</v>
       </c>
       <c r="M2" t="n">
-        <v>16316.73223919226</v>
+        <v>16316.73223919225</v>
       </c>
       <c r="N2" t="n">
-        <v>16316.73223919226</v>
+        <v>16316.73223919225</v>
       </c>
       <c r="O2" t="n">
-        <v>16316.73223919227</v>
+        <v>16316.73223919225</v>
       </c>
       <c r="P2" t="n">
-        <v>16316.73223919226</v>
+        <v>16316.73223919225</v>
       </c>
     </row>
     <row r="3">
@@ -26365,28 +26365,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43630.90718593419</v>
+        <v>43630.90718593417</v>
       </c>
       <c r="C3" t="n">
-        <v>2668.793398452307</v>
+        <v>2668.793398452301</v>
       </c>
       <c r="D3" t="n">
         <v>3221.566157245948</v>
       </c>
       <c r="E3" t="n">
-        <v>2596.242943674092</v>
+        <v>2596.242943674086</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8944.872567360084</v>
+        <v>8944.872567360075</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9760.207588296285</v>
+        <v>9760.207588296271</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1513.846844863035</v>
+        <v>1513.846844863028</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3991.639907410265</v>
+        <v>3991.639907410264</v>
       </c>
       <c r="C4" t="n">
-        <v>3543.094988309628</v>
+        <v>3543.094988309629</v>
       </c>
       <c r="D4" t="n">
         <v>2989.732879230329</v>
@@ -26432,13 +26432,13 @@
         <v>2617.871615697846</v>
       </c>
       <c r="G4" t="n">
-        <v>2095.003486367958</v>
+        <v>2095.003486367959</v>
       </c>
       <c r="H4" t="n">
-        <v>2095.003486367958</v>
+        <v>2095.003486367959</v>
       </c>
       <c r="I4" t="n">
-        <v>1741.644506764841</v>
+        <v>1741.644506764842</v>
       </c>
       <c r="J4" t="n">
         <v>1741.644506764841</v>
@@ -26447,7 +26447,7 @@
         <v>1741.644506764841</v>
       </c>
       <c r="L4" t="n">
-        <v>1741.644506764841</v>
+        <v>1741.644506764842</v>
       </c>
       <c r="M4" t="n">
         <v>1741.644506764841</v>
@@ -26456,10 +26456,10 @@
         <v>1741.644506764841</v>
       </c>
       <c r="O4" t="n">
-        <v>1741.644506764842</v>
+        <v>1741.644506764841</v>
       </c>
       <c r="P4" t="n">
-        <v>1741.644506764842</v>
+        <v>1741.644506764841</v>
       </c>
     </row>
     <row r="5">
@@ -26484,31 +26484,31 @@
         <v>1203.414618767601</v>
       </c>
       <c r="G5" t="n">
-        <v>1788.346765386282</v>
+        <v>1788.346765386281</v>
       </c>
       <c r="H5" t="n">
-        <v>1788.346765386282</v>
+        <v>1788.346765386281</v>
       </c>
       <c r="I5" t="n">
-        <v>2536.546945698389</v>
+        <v>2536.546945698388</v>
       </c>
       <c r="J5" t="n">
-        <v>2536.546945698389</v>
+        <v>2536.546945698388</v>
       </c>
       <c r="K5" t="n">
-        <v>2536.54694569839</v>
+        <v>2536.546945698388</v>
       </c>
       <c r="L5" t="n">
-        <v>2536.54694569839</v>
+        <v>2536.546945698388</v>
       </c>
       <c r="M5" t="n">
-        <v>2536.54694569839</v>
+        <v>2536.546945698388</v>
       </c>
       <c r="N5" t="n">
-        <v>2536.54694569839</v>
+        <v>2536.546945698388</v>
       </c>
       <c r="O5" t="n">
-        <v>2536.546945698391</v>
+        <v>2536.546945698387</v>
       </c>
       <c r="P5" t="n">
         <v>2536.546945698387</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-68998.68914051159</v>
+        <v>-70352.96097779617</v>
       </c>
       <c r="C6" t="n">
-        <v>-27621.14719460868</v>
+        <v>-28975.18230339618</v>
       </c>
       <c r="D6" t="n">
-        <v>-27663.06331121056</v>
+        <v>-29016.79457822466</v>
       </c>
       <c r="E6" t="n">
-        <v>6925.205991861647</v>
+        <v>5571.735746218365</v>
       </c>
       <c r="F6" t="n">
-        <v>9521.448935535744</v>
+        <v>8167.978689892451</v>
       </c>
       <c r="G6" t="n">
-        <v>1770.414276801581</v>
+        <v>426.6048152038027</v>
       </c>
       <c r="H6" t="n">
-        <v>10715.28684416166</v>
+        <v>9371.477382563873</v>
       </c>
       <c r="I6" t="n">
-        <v>2278.333198432747</v>
+        <v>947.7398533217124</v>
       </c>
       <c r="J6" t="n">
-        <v>12038.54078672903</v>
+        <v>10707.94744161798</v>
       </c>
       <c r="K6" t="n">
-        <v>12038.54078672904</v>
+        <v>10707.94744161798</v>
       </c>
       <c r="L6" t="n">
-        <v>12038.54078672904</v>
+        <v>10707.94744161798</v>
       </c>
       <c r="M6" t="n">
-        <v>12038.54078672903</v>
+        <v>10707.94744161798</v>
       </c>
       <c r="N6" t="n">
-        <v>12038.54078672903</v>
+        <v>10707.94744161798</v>
       </c>
       <c r="O6" t="n">
-        <v>10524.693941866</v>
+        <v>9194.10059675495</v>
       </c>
       <c r="P6" t="n">
-        <v>12038.54078672903</v>
+        <v>10707.94744161798</v>
       </c>
     </row>
   </sheetData>
@@ -26746,37 +26746,37 @@
         <v>51.97094800593192</v>
       </c>
       <c r="E3" t="n">
-        <v>55.20250544805511</v>
+        <v>55.2025054480551</v>
       </c>
       <c r="F3" t="n">
         <v>55.2025054480551</v>
       </c>
       <c r="G3" t="n">
-        <v>64.48974078097982</v>
+        <v>64.4897407809798</v>
       </c>
       <c r="H3" t="n">
-        <v>64.48974078097982</v>
+        <v>64.4897407809798</v>
       </c>
       <c r="I3" t="n">
-        <v>74.35858929917694</v>
+        <v>74.35858929917691</v>
       </c>
       <c r="J3" t="n">
-        <v>74.35858929917694</v>
+        <v>74.35858929917691</v>
       </c>
       <c r="K3" t="n">
-        <v>74.35858929917694</v>
+        <v>74.35858929917691</v>
       </c>
       <c r="L3" t="n">
-        <v>74.35858929917694</v>
+        <v>74.35858929917691</v>
       </c>
       <c r="M3" t="n">
-        <v>74.35858929917694</v>
+        <v>74.35858929917691</v>
       </c>
       <c r="N3" t="n">
-        <v>74.35858929917694</v>
+        <v>74.35858929917691</v>
       </c>
       <c r="O3" t="n">
-        <v>74.35858929917694</v>
+        <v>74.35858929917691</v>
       </c>
       <c r="P3" t="n">
         <v>74.35858929917691</v>
@@ -26804,31 +26804,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="H4" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="I4" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="J4" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="K4" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="L4" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="M4" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N4" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O4" t="n">
-        <v>15.05805425947917</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="P4" t="n">
         <v>15.05805425947912</v>
@@ -26962,25 +26962,25 @@
         <v>45.27845430264449</v>
       </c>
       <c r="C3" t="n">
-        <v>2.930801160608375</v>
+        <v>2.930801160608368</v>
       </c>
       <c r="D3" t="n">
         <v>3.761692542679064</v>
       </c>
       <c r="E3" t="n">
-        <v>3.231557442123183</v>
+        <v>3.231557442123176</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9.287235332924709</v>
+        <v>9.287235332924702</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.868848518197126</v>
+        <v>9.868848518197112</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>8.767422411437668</v>
+        <v>8.767422411437657</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.290631848041499</v>
+        <v>6.290631848041469</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31050,19 +31050,19 @@
         <v>7.017477827146541</v>
       </c>
       <c r="J2" t="n">
-        <v>15.44905411404652</v>
+        <v>15.44905411404653</v>
       </c>
       <c r="K2" t="n">
         <v>23.15412736281413</v>
       </c>
       <c r="L2" t="n">
-        <v>28.72474242156611</v>
+        <v>28.72474242156612</v>
       </c>
       <c r="M2" t="n">
         <v>31.96181060932351</v>
       </c>
       <c r="N2" t="n">
-        <v>32.47898612002658</v>
+        <v>32.47898612002659</v>
       </c>
       <c r="O2" t="n">
         <v>30.6689855975264</v>
@@ -31080,7 +31080,7 @@
         <v>4.147870461996026</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7968097837580952</v>
+        <v>0.7968097837580953</v>
       </c>
       <c r="U2" t="n">
         <v>0.01456191495160424</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09739139227361267</v>
+        <v>0.09739139227361268</v>
       </c>
       <c r="H3" t="n">
         <v>0.9405958148530489</v>
@@ -31159,7 +31159,7 @@
         <v>1.809002395959427</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3925556556993421</v>
+        <v>0.3925556556993422</v>
       </c>
       <c r="U3" t="n">
         <v>0.006407328439053468</v>
@@ -31202,7 +31202,7 @@
         <v>0.08164967169329333</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7259398083276448</v>
+        <v>0.7259398083276449</v>
       </c>
       <c r="I4" t="n">
         <v>2.455428308740131</v>
@@ -31229,10 +31229,10 @@
         <v>9.875156656432491</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.837046599699317</v>
+        <v>6.837046599699318</v>
       </c>
       <c r="R4" t="n">
-        <v>3.671266147227533</v>
+        <v>3.671266147227534</v>
       </c>
       <c r="S4" t="n">
         <v>1.422931096691302</v>
@@ -31284,7 +31284,7 @@
         <v>1.984816231208193</v>
       </c>
       <c r="I5" t="n">
-        <v>7.471707824108768</v>
+        <v>7.471707824108769</v>
       </c>
       <c r="J5" t="n">
         <v>16.44904641557491</v>
@@ -31296,7 +31296,7 @@
         <v>30.58404856891367</v>
       </c>
       <c r="M5" t="n">
-        <v>34.03064694818854</v>
+        <v>34.03064694818853</v>
       </c>
       <c r="N5" t="n">
         <v>34.58129839375625</v>
@@ -31393,7 +31393,7 @@
         <v>6.438209625828375</v>
       </c>
       <c r="S6" t="n">
-        <v>1.926096197045998</v>
+        <v>1.926096197045997</v>
       </c>
       <c r="T6" t="n">
         <v>0.4179651487804657</v>
@@ -31469,7 +31469,7 @@
         <v>7.279597574951182</v>
       </c>
       <c r="R7" t="n">
-        <v>3.908901270840141</v>
+        <v>3.90890127084014</v>
       </c>
       <c r="S7" t="n">
         <v>1.51503512660747</v>
@@ -31518,7 +31518,7 @@
         <v>0.208928434194701</v>
       </c>
       <c r="H8" t="n">
-        <v>2.139688326696482</v>
+        <v>2.139688326696483</v>
       </c>
       <c r="I8" t="n">
         <v>8.05471345929122</v>
@@ -31542,7 +31542,7 @@
         <v>35.20209071692246</v>
       </c>
       <c r="P8" t="n">
-        <v>30.04416999774077</v>
+        <v>30.04416999774078</v>
       </c>
       <c r="Q8" t="n">
         <v>22.56192044814304</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1117865674089856</v>
+        <v>0.1117865674089857</v>
       </c>
       <c r="H9" t="n">
         <v>1.079622901028888</v>
@@ -31624,7 +31624,7 @@
         <v>21.34633145549306</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.26945727136456</v>
+        <v>14.26945727136455</v>
       </c>
       <c r="R9" t="n">
         <v>6.940573018603515</v>
@@ -31676,7 +31676,7 @@
         <v>0.09371810296151657</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8332391336033026</v>
+        <v>0.8332391336033025</v>
       </c>
       <c r="I10" t="n">
         <v>2.818358950879063</v>
@@ -31703,13 +31703,13 @@
         <v>11.33477856181833</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.84761314889572</v>
+        <v>7.847613148895721</v>
       </c>
       <c r="R10" t="n">
         <v>4.213906702251462</v>
       </c>
       <c r="S10" t="n">
-        <v>1.633250939792974</v>
+        <v>1.633250939792975</v>
       </c>
       <c r="T10" t="n">
         <v>0.4004318944719343</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2219196198916787</v>
+        <v>0.2219196198916786</v>
       </c>
       <c r="H11" t="n">
-        <v>2.272734307215655</v>
+        <v>2.272734307215654</v>
       </c>
       <c r="I11" t="n">
         <v>8.555556145873949</v>
@@ -31788,10 +31788,10 @@
         <v>13.94015832302067</v>
       </c>
       <c r="S11" t="n">
-        <v>5.056993338281632</v>
+        <v>5.056993338281631</v>
       </c>
       <c r="T11" t="n">
-        <v>0.9714531360758238</v>
+        <v>0.9714531360758236</v>
       </c>
       <c r="U11" t="n">
         <v>0.01775356959133429</v>
@@ -31834,7 +31834,7 @@
         <v>0.1187374645486468</v>
       </c>
       <c r="H12" t="n">
-        <v>1.146753933930353</v>
+        <v>1.146753933930352</v>
       </c>
       <c r="I12" t="n">
         <v>4.08811007327578</v>
@@ -31864,7 +31864,7 @@
         <v>15.15673319396411</v>
       </c>
       <c r="R12" t="n">
-        <v>7.372138369081777</v>
+        <v>7.372138369081776</v>
       </c>
       <c r="S12" t="n">
         <v>2.205496326155785</v>
@@ -31873,7 +31873,7 @@
         <v>0.4785953066675719</v>
       </c>
       <c r="U12" t="n">
-        <v>0.007811675299253085</v>
+        <v>0.007811675299253084</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,13 +31913,13 @@
         <v>0.09954550162764034</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8850500053802939</v>
+        <v>0.8850500053802938</v>
       </c>
       <c r="I13" t="n">
         <v>2.993604721674858</v>
       </c>
       <c r="J13" t="n">
-        <v>7.037866965074172</v>
+        <v>7.037866965074171</v>
       </c>
       <c r="K13" t="n">
         <v>11.56537737092039</v>
@@ -31928,28 +31928,28 @@
         <v>14.799701214713</v>
       </c>
       <c r="M13" t="n">
-        <v>15.60420985968548</v>
+        <v>15.60420985968547</v>
       </c>
       <c r="N13" t="n">
         <v>15.2331766263461</v>
       </c>
       <c r="O13" t="n">
-        <v>14.07030417551412</v>
+        <v>14.07030417551411</v>
       </c>
       <c r="P13" t="n">
         <v>12.03957594231024</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.335578322656321</v>
+        <v>8.335578322656319</v>
       </c>
       <c r="R13" t="n">
-        <v>4.475927736820991</v>
+        <v>4.47592773682099</v>
       </c>
       <c r="S13" t="n">
         <v>1.734806605638059</v>
       </c>
       <c r="T13" t="n">
-        <v>0.4253307796817359</v>
+        <v>0.4253307796817358</v>
       </c>
       <c r="U13" t="n">
         <v>0.005429754634234934</v>
@@ -31992,7 +31992,7 @@
         <v>0.2219196198916786</v>
       </c>
       <c r="H14" t="n">
-        <v>2.272734307215655</v>
+        <v>2.272734307215654</v>
       </c>
       <c r="I14" t="n">
         <v>8.555556145873949</v>
@@ -32028,7 +32028,7 @@
         <v>5.056993338281631</v>
       </c>
       <c r="T14" t="n">
-        <v>0.9714531360758237</v>
+        <v>0.9714531360758236</v>
       </c>
       <c r="U14" t="n">
         <v>0.01775356959133429</v>
@@ -32071,7 +32071,7 @@
         <v>0.1187374645486468</v>
       </c>
       <c r="H15" t="n">
-        <v>1.146753933930353</v>
+        <v>1.146753933930352</v>
       </c>
       <c r="I15" t="n">
         <v>4.08811007327578</v>
@@ -32101,7 +32101,7 @@
         <v>15.15673319396411</v>
       </c>
       <c r="R15" t="n">
-        <v>7.372138369081777</v>
+        <v>7.372138369081776</v>
       </c>
       <c r="S15" t="n">
         <v>2.205496326155785</v>
@@ -32150,13 +32150,13 @@
         <v>0.09954550162764034</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8850500053802939</v>
+        <v>0.8850500053802938</v>
       </c>
       <c r="I16" t="n">
         <v>2.993604721674858</v>
       </c>
       <c r="J16" t="n">
-        <v>7.037866965074172</v>
+        <v>7.037866965074171</v>
       </c>
       <c r="K16" t="n">
         <v>11.56537737092039</v>
@@ -32186,7 +32186,7 @@
         <v>1.734806605638059</v>
       </c>
       <c r="T16" t="n">
-        <v>0.4253307796817359</v>
+        <v>0.4253307796817358</v>
       </c>
       <c r="U16" t="n">
         <v>0.005429754634234934</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2592552393205217</v>
+        <v>0.2592552393205216</v>
       </c>
       <c r="H17" t="n">
         <v>2.655097719691293</v>
       </c>
       <c r="I17" t="n">
-        <v>9.994937613904421</v>
+        <v>9.994937613904419</v>
       </c>
       <c r="J17" t="n">
-        <v>22.00396436828015</v>
+        <v>22.00396436828014</v>
       </c>
       <c r="K17" t="n">
         <v>32.97823864871783</v>
       </c>
       <c r="L17" t="n">
-        <v>40.91242117907326</v>
+        <v>40.91242117907325</v>
       </c>
       <c r="M17" t="n">
         <v>43.72189474747329</v>
       </c>
       <c r="N17" t="n">
-        <v>43.5702546824875</v>
+        <v>43.57025468248749</v>
       </c>
       <c r="O17" t="n">
-        <v>43.68159120406558</v>
+        <v>43.68159120406557</v>
       </c>
       <c r="P17" t="n">
-        <v>37.2812274833402</v>
+        <v>37.28122748334019</v>
       </c>
       <c r="Q17" t="n">
         <v>27.996649225174</v>
       </c>
       <c r="R17" t="n">
-        <v>16.28544192696774</v>
+        <v>16.28544192696773</v>
       </c>
       <c r="S17" t="n">
-        <v>5.907778766016394</v>
+        <v>5.907778766016392</v>
       </c>
       <c r="T17" t="n">
         <v>1.134889810125584</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02074041914564173</v>
+        <v>0.02074041914564172</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1387137820572019</v>
+        <v>0.1387137820572018</v>
       </c>
       <c r="H18" t="n">
         <v>1.339683105657713</v>
       </c>
       <c r="I18" t="n">
-        <v>4.775891180478223</v>
+        <v>4.775891180478222</v>
       </c>
       <c r="J18" t="n">
         <v>13.10541043550081</v>
@@ -32320,34 +32320,34 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>28.80571856227104</v>
+        <v>23.83414438862845</v>
       </c>
       <c r="M18" t="n">
-        <v>29.38741236036946</v>
+        <v>29.38741236036945</v>
       </c>
       <c r="N18" t="n">
         <v>27.63366006158314</v>
       </c>
       <c r="O18" t="n">
-        <v>29.20835462690849</v>
+        <v>29.46252157026369</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>26.48824843511603</v>
       </c>
       <c r="Q18" t="n">
-        <v>17.70669260084563</v>
+        <v>17.70669260084562</v>
       </c>
       <c r="R18" t="n">
-        <v>8.612422363165573</v>
+        <v>8.612422363165571</v>
       </c>
       <c r="S18" t="n">
-        <v>2.576547662334428</v>
+        <v>2.576547662334427</v>
       </c>
       <c r="T18" t="n">
-        <v>0.5591138846954757</v>
+        <v>0.5591138846954756</v>
       </c>
       <c r="U18" t="n">
-        <v>0.009125906714289601</v>
+        <v>0.009125906714289598</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1162929751788161</v>
+        <v>0.116292975178816</v>
       </c>
       <c r="H19" t="n">
-        <v>1.033950270226202</v>
+        <v>1.033950270226201</v>
       </c>
       <c r="I19" t="n">
-        <v>3.497246926286578</v>
+        <v>3.497246926286577</v>
       </c>
       <c r="J19" t="n">
-        <v>8.221913345142294</v>
+        <v>8.221913345142292</v>
       </c>
       <c r="K19" t="n">
-        <v>13.5111292980479</v>
+        <v>13.51112929804789</v>
       </c>
       <c r="L19" t="n">
         <v>17.28959378249416</v>
@@ -32408,25 +32408,25 @@
         <v>17.79599682895465</v>
       </c>
       <c r="O19" t="n">
-        <v>16.43748343709303</v>
+        <v>16.43748343709302</v>
       </c>
       <c r="P19" t="n">
-        <v>14.06510674344517</v>
+        <v>14.06510674344516</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.737950857927952</v>
+        <v>9.737950857927949</v>
       </c>
       <c r="R19" t="n">
-        <v>5.228955047585673</v>
+        <v>5.228955047585671</v>
       </c>
       <c r="S19" t="n">
         <v>2.026669394707184</v>
       </c>
       <c r="T19" t="n">
-        <v>0.496888166673123</v>
+        <v>0.4968881666731229</v>
       </c>
       <c r="U19" t="n">
-        <v>0.006343253191571792</v>
+        <v>0.006343253191571791</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2592552393205217</v>
+        <v>0.2592552393205216</v>
       </c>
       <c r="H20" t="n">
         <v>2.655097719691293</v>
       </c>
       <c r="I20" t="n">
-        <v>9.994937613904421</v>
+        <v>9.994937613904419</v>
       </c>
       <c r="J20" t="n">
-        <v>22.00396436828015</v>
+        <v>22.00396436828014</v>
       </c>
       <c r="K20" t="n">
         <v>32.97823864871783</v>
       </c>
       <c r="L20" t="n">
-        <v>40.91242117907326</v>
+        <v>40.91242117907325</v>
       </c>
       <c r="M20" t="n">
         <v>43.72189474747329</v>
       </c>
       <c r="N20" t="n">
-        <v>43.5702546824875</v>
+        <v>43.57025468248749</v>
       </c>
       <c r="O20" t="n">
-        <v>43.68159120406558</v>
+        <v>43.68159120406557</v>
       </c>
       <c r="P20" t="n">
-        <v>37.2812274833402</v>
+        <v>37.28122748334019</v>
       </c>
       <c r="Q20" t="n">
         <v>27.996649225174</v>
       </c>
       <c r="R20" t="n">
-        <v>16.28544192696774</v>
+        <v>16.28544192696773</v>
       </c>
       <c r="S20" t="n">
-        <v>5.907778766016394</v>
+        <v>5.907778766016392</v>
       </c>
       <c r="T20" t="n">
         <v>1.134889810125584</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02074041914564173</v>
+        <v>0.02074041914564172</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1387137820572019</v>
+        <v>0.1387137820572018</v>
       </c>
       <c r="H21" t="n">
         <v>1.339683105657713</v>
       </c>
       <c r="I21" t="n">
-        <v>4.775891180478223</v>
+        <v>4.775891180478222</v>
       </c>
       <c r="J21" t="n">
         <v>13.10541043550081</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>22.39923383333333</v>
       </c>
       <c r="L21" t="n">
-        <v>23.83414438862846</v>
+        <v>28.80571856227103</v>
       </c>
       <c r="M21" t="n">
-        <v>29.38741236036946</v>
+        <v>24.41583818672687</v>
       </c>
       <c r="N21" t="n">
         <v>27.63366006158314</v>
       </c>
       <c r="O21" t="n">
-        <v>29.4625215702637</v>
+        <v>29.46252157026369</v>
       </c>
       <c r="P21" t="n">
         <v>26.48824843511603</v>
       </c>
       <c r="Q21" t="n">
-        <v>17.70669260084563</v>
+        <v>17.70669260084562</v>
       </c>
       <c r="R21" t="n">
-        <v>8.612422363165573</v>
+        <v>8.612422363165571</v>
       </c>
       <c r="S21" t="n">
-        <v>2.576547662334428</v>
+        <v>2.576547662334427</v>
       </c>
       <c r="T21" t="n">
-        <v>0.5591138846954757</v>
+        <v>0.5591138846954756</v>
       </c>
       <c r="U21" t="n">
-        <v>0.009125906714289601</v>
+        <v>0.009125906714289598</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1162929751788161</v>
+        <v>0.116292975178816</v>
       </c>
       <c r="H22" t="n">
-        <v>1.033950270226202</v>
+        <v>1.033950270226201</v>
       </c>
       <c r="I22" t="n">
-        <v>3.497246926286578</v>
+        <v>3.497246926286577</v>
       </c>
       <c r="J22" t="n">
-        <v>8.221913345142294</v>
+        <v>8.221913345142292</v>
       </c>
       <c r="K22" t="n">
-        <v>13.5111292980479</v>
+        <v>13.51112929804789</v>
       </c>
       <c r="L22" t="n">
         <v>17.28959378249416</v>
@@ -32645,25 +32645,25 @@
         <v>17.79599682895465</v>
       </c>
       <c r="O22" t="n">
-        <v>16.43748343709303</v>
+        <v>16.43748343709302</v>
       </c>
       <c r="P22" t="n">
-        <v>14.06510674344517</v>
+        <v>14.06510674344516</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.737950857927952</v>
+        <v>9.737950857927949</v>
       </c>
       <c r="R22" t="n">
-        <v>5.228955047585673</v>
+        <v>5.228955047585671</v>
       </c>
       <c r="S22" t="n">
         <v>2.026669394707184</v>
       </c>
       <c r="T22" t="n">
-        <v>0.496888166673123</v>
+        <v>0.4968881666731229</v>
       </c>
       <c r="U22" t="n">
-        <v>0.006343253191571792</v>
+        <v>0.006343253191571791</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2989290022077463</v>
+        <v>0.2989290022077462</v>
       </c>
       <c r="H23" t="n">
-        <v>3.061406643860082</v>
+        <v>3.061406643860081</v>
       </c>
       <c r="I23" t="n">
-        <v>11.52446035761415</v>
+        <v>11.52446035761414</v>
       </c>
       <c r="J23" t="n">
-        <v>25.37122540112973</v>
+        <v>25.37122540112972</v>
       </c>
       <c r="K23" t="n">
-        <v>38.02489006458364</v>
+        <v>38.02489006458362</v>
       </c>
       <c r="L23" t="n">
-        <v>47.17323851589896</v>
+        <v>47.17323851589894</v>
       </c>
       <c r="M23" t="n">
-        <v>52.48931715891096</v>
+        <v>52.48931715891094</v>
       </c>
       <c r="N23" t="n">
-        <v>52.33767709392517</v>
+        <v>52.33767709392515</v>
       </c>
       <c r="O23" t="n">
-        <v>50.36617392073045</v>
+        <v>50.36617392073043</v>
       </c>
       <c r="P23" t="n">
-        <v>42.9863641787267</v>
+        <v>42.98636417872669</v>
       </c>
       <c r="Q23" t="n">
-        <v>32.28096928716178</v>
+        <v>32.28096928716177</v>
       </c>
       <c r="R23" t="n">
-        <v>18.77759893493236</v>
+        <v>18.77759893493235</v>
       </c>
       <c r="S23" t="n">
-        <v>6.811844637809025</v>
+        <v>6.811844637809022</v>
       </c>
       <c r="T23" t="n">
         <v>1.30856170716441</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0239143201766197</v>
+        <v>0.02391432017661969</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>0.1599411166057768</v>
       </c>
       <c r="H24" t="n">
-        <v>1.544694468271582</v>
+        <v>1.544694468271581</v>
       </c>
       <c r="I24" t="n">
-        <v>5.506744584891878</v>
+        <v>5.506744584891876</v>
       </c>
       <c r="J24" t="n">
         <v>15.11092803861859</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>25.82698285120563</v>
       </c>
       <c r="L24" t="n">
         <v>34.72756569109202</v>
       </c>
       <c r="M24" t="n">
-        <v>38.15483477180712</v>
+        <v>38.1548347718071</v>
       </c>
       <c r="N24" t="n">
-        <v>36.40108247302081</v>
+        <v>36.40108247302079</v>
       </c>
       <c r="O24" t="n">
-        <v>31.69621592599175</v>
+        <v>28.26846690811944</v>
       </c>
       <c r="P24" t="n">
-        <v>30.54173831044874</v>
+        <v>30.54173831044873</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.41634323550232</v>
+        <v>20.41634323550231</v>
       </c>
       <c r="R24" t="n">
-        <v>9.930379152067445</v>
+        <v>9.930379152067442</v>
       </c>
       <c r="S24" t="n">
-        <v>2.970836091339756</v>
+        <v>2.970836091339755</v>
       </c>
       <c r="T24" t="n">
-        <v>0.6446749393013546</v>
+        <v>0.6446749393013543</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01052244188195901</v>
+        <v>0.010522441881959</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1340892593919584</v>
+        <v>0.1340892593919583</v>
       </c>
       <c r="H25" t="n">
         <v>1.192175415321231</v>
       </c>
       <c r="I25" t="n">
-        <v>4.032429727896351</v>
+        <v>4.032429727896349</v>
       </c>
       <c r="J25" t="n">
-        <v>9.480110639011459</v>
+        <v>9.480110639011455</v>
       </c>
       <c r="K25" t="n">
         <v>15.57873395481116</v>
       </c>
       <c r="L25" t="n">
-        <v>19.93541589178262</v>
+        <v>19.93541589178261</v>
       </c>
       <c r="M25" t="n">
-        <v>21.01910090632308</v>
+        <v>21.01910090632307</v>
       </c>
       <c r="N25" t="n">
-        <v>20.51931366677125</v>
+        <v>20.51931366677124</v>
       </c>
       <c r="O25" t="n">
-        <v>18.95290731841973</v>
+        <v>18.95290731841972</v>
       </c>
       <c r="P25" t="n">
         <v>16.21748642682376</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.22814698417572</v>
+        <v>11.22814698417571</v>
       </c>
       <c r="R25" t="n">
-        <v>6.029140699569329</v>
+        <v>6.029140699569326</v>
       </c>
       <c r="S25" t="n">
-        <v>2.336810093221674</v>
+        <v>2.336810093221673</v>
       </c>
       <c r="T25" t="n">
-        <v>0.5729268355838221</v>
+        <v>0.572926835583822</v>
       </c>
       <c r="U25" t="n">
-        <v>0.007313959603197739</v>
+        <v>0.007313959603197737</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2989290022077463</v>
+        <v>0.2989290022077462</v>
       </c>
       <c r="H26" t="n">
-        <v>3.061406643860082</v>
+        <v>3.061406643860081</v>
       </c>
       <c r="I26" t="n">
-        <v>11.52446035761415</v>
+        <v>11.52446035761414</v>
       </c>
       <c r="J26" t="n">
-        <v>25.37122540112973</v>
+        <v>25.37122540112972</v>
       </c>
       <c r="K26" t="n">
-        <v>38.02489006458364</v>
+        <v>38.02489006458362</v>
       </c>
       <c r="L26" t="n">
-        <v>47.17323851589896</v>
+        <v>47.17323851589894</v>
       </c>
       <c r="M26" t="n">
-        <v>52.48931715891096</v>
+        <v>52.48931715891094</v>
       </c>
       <c r="N26" t="n">
-        <v>52.33767709392517</v>
+        <v>52.33767709392515</v>
       </c>
       <c r="O26" t="n">
-        <v>50.36617392073045</v>
+        <v>50.36617392073043</v>
       </c>
       <c r="P26" t="n">
-        <v>42.9863641787267</v>
+        <v>42.98636417872669</v>
       </c>
       <c r="Q26" t="n">
-        <v>32.28096928716178</v>
+        <v>32.28096928716177</v>
       </c>
       <c r="R26" t="n">
-        <v>18.77759893493236</v>
+        <v>18.77759893493235</v>
       </c>
       <c r="S26" t="n">
-        <v>6.811844637809025</v>
+        <v>6.811844637809022</v>
       </c>
       <c r="T26" t="n">
         <v>1.30856170716441</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0239143201766197</v>
+        <v>0.02391432017661969</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,10 +33019,10 @@
         <v>0.1599411166057768</v>
       </c>
       <c r="H27" t="n">
-        <v>1.544694468271582</v>
+        <v>1.544694468271581</v>
       </c>
       <c r="I27" t="n">
-        <v>5.506744584891878</v>
+        <v>5.506744584891876</v>
       </c>
       <c r="J27" t="n">
         <v>15.11092803861859</v>
@@ -33034,31 +33034,31 @@
         <v>34.72756569109202</v>
       </c>
       <c r="M27" t="n">
-        <v>31.79699037975687</v>
+        <v>38.1548347718071</v>
       </c>
       <c r="N27" t="n">
-        <v>36.40108247302081</v>
+        <v>30.04323808097054</v>
       </c>
       <c r="O27" t="n">
-        <v>38.054060318042</v>
+        <v>38.05406031804198</v>
       </c>
       <c r="P27" t="n">
-        <v>30.54173831044874</v>
+        <v>30.54173831044873</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.41634323550232</v>
+        <v>20.41634323550231</v>
       </c>
       <c r="R27" t="n">
-        <v>9.930379152067445</v>
+        <v>9.930379152067442</v>
       </c>
       <c r="S27" t="n">
-        <v>2.970836091339756</v>
+        <v>2.970836091339755</v>
       </c>
       <c r="T27" t="n">
-        <v>0.6446749393013546</v>
+        <v>0.6446749393013543</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01052244188195901</v>
+        <v>0.010522441881959</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1340892593919584</v>
+        <v>0.1340892593919583</v>
       </c>
       <c r="H28" t="n">
         <v>1.192175415321231</v>
       </c>
       <c r="I28" t="n">
-        <v>4.032429727896351</v>
+        <v>4.032429727896349</v>
       </c>
       <c r="J28" t="n">
-        <v>9.480110639011459</v>
+        <v>9.480110639011455</v>
       </c>
       <c r="K28" t="n">
         <v>15.57873395481116</v>
       </c>
       <c r="L28" t="n">
-        <v>19.93541589178262</v>
+        <v>19.93541589178261</v>
       </c>
       <c r="M28" t="n">
-        <v>21.01910090632308</v>
+        <v>21.01910090632307</v>
       </c>
       <c r="N28" t="n">
-        <v>20.51931366677125</v>
+        <v>20.51931366677124</v>
       </c>
       <c r="O28" t="n">
-        <v>18.95290731841973</v>
+        <v>18.95290731841972</v>
       </c>
       <c r="P28" t="n">
         <v>16.21748642682376</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.22814698417572</v>
+        <v>11.22814698417571</v>
       </c>
       <c r="R28" t="n">
-        <v>6.029140699569329</v>
+        <v>6.029140699569326</v>
       </c>
       <c r="S28" t="n">
-        <v>2.336810093221674</v>
+        <v>2.336810093221673</v>
       </c>
       <c r="T28" t="n">
-        <v>0.5729268355838221</v>
+        <v>0.572926835583822</v>
       </c>
       <c r="U28" t="n">
-        <v>0.007313959603197739</v>
+        <v>0.007313959603197737</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2989290022077463</v>
+        <v>0.2989290022077462</v>
       </c>
       <c r="H29" t="n">
-        <v>3.061406643860082</v>
+        <v>3.061406643860081</v>
       </c>
       <c r="I29" t="n">
-        <v>11.52446035761415</v>
+        <v>11.52446035761414</v>
       </c>
       <c r="J29" t="n">
-        <v>25.37122540112973</v>
+        <v>25.37122540112972</v>
       </c>
       <c r="K29" t="n">
-        <v>38.02489006458364</v>
+        <v>38.02489006458362</v>
       </c>
       <c r="L29" t="n">
-        <v>47.17323851589896</v>
+        <v>47.17323851589894</v>
       </c>
       <c r="M29" t="n">
-        <v>52.48931715891096</v>
+        <v>52.48931715891094</v>
       </c>
       <c r="N29" t="n">
-        <v>52.33767709392517</v>
+        <v>52.33767709392515</v>
       </c>
       <c r="O29" t="n">
-        <v>50.36617392073045</v>
+        <v>50.36617392073043</v>
       </c>
       <c r="P29" t="n">
-        <v>42.9863641787267</v>
+        <v>42.98636417872669</v>
       </c>
       <c r="Q29" t="n">
-        <v>32.28096928716178</v>
+        <v>32.28096928716177</v>
       </c>
       <c r="R29" t="n">
-        <v>18.77759893493236</v>
+        <v>18.77759893493235</v>
       </c>
       <c r="S29" t="n">
-        <v>6.811844637809025</v>
+        <v>6.811844637809022</v>
       </c>
       <c r="T29" t="n">
         <v>1.30856170716441</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0239143201766197</v>
+        <v>0.02391432017661969</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>0.1599411166057768</v>
       </c>
       <c r="H30" t="n">
-        <v>1.544694468271582</v>
+        <v>1.544694468271581</v>
       </c>
       <c r="I30" t="n">
-        <v>5.506744584891878</v>
+        <v>5.506744584891876</v>
       </c>
       <c r="J30" t="n">
         <v>15.11092803861859</v>
       </c>
       <c r="K30" t="n">
-        <v>25.82698285120564</v>
+        <v>25.82698285120563</v>
       </c>
       <c r="L30" t="n">
         <v>34.72756569109202</v>
       </c>
       <c r="M30" t="n">
-        <v>28.36924136188458</v>
+        <v>38.1548347718071</v>
       </c>
       <c r="N30" t="n">
-        <v>36.40108247302081</v>
+        <v>36.40108247302079</v>
       </c>
       <c r="O30" t="n">
-        <v>38.054060318042</v>
+        <v>37.03936401373951</v>
       </c>
       <c r="P30" t="n">
-        <v>30.54173831044874</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.41634323550232</v>
+        <v>20.41634323550231</v>
       </c>
       <c r="R30" t="n">
-        <v>9.930379152067445</v>
+        <v>9.930379152067442</v>
       </c>
       <c r="S30" t="n">
-        <v>2.970836091339756</v>
+        <v>2.970836091339755</v>
       </c>
       <c r="T30" t="n">
-        <v>0.6446749393013546</v>
+        <v>0.6446749393013543</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01052244188195901</v>
+        <v>0.010522441881959</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1340892593919584</v>
+        <v>0.1340892593919583</v>
       </c>
       <c r="H31" t="n">
         <v>1.192175415321231</v>
       </c>
       <c r="I31" t="n">
-        <v>4.032429727896351</v>
+        <v>4.032429727896349</v>
       </c>
       <c r="J31" t="n">
-        <v>9.480110639011459</v>
+        <v>9.480110639011455</v>
       </c>
       <c r="K31" t="n">
         <v>15.57873395481116</v>
       </c>
       <c r="L31" t="n">
-        <v>19.93541589178262</v>
+        <v>19.93541589178261</v>
       </c>
       <c r="M31" t="n">
-        <v>21.01910090632308</v>
+        <v>21.01910090632307</v>
       </c>
       <c r="N31" t="n">
-        <v>20.51931366677125</v>
+        <v>20.51931366677124</v>
       </c>
       <c r="O31" t="n">
-        <v>18.95290731841973</v>
+        <v>18.95290731841972</v>
       </c>
       <c r="P31" t="n">
         <v>16.21748642682376</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.22814698417572</v>
+        <v>11.22814698417571</v>
       </c>
       <c r="R31" t="n">
-        <v>6.029140699569329</v>
+        <v>6.029140699569326</v>
       </c>
       <c r="S31" t="n">
-        <v>2.336810093221674</v>
+        <v>2.336810093221673</v>
       </c>
       <c r="T31" t="n">
-        <v>0.5729268355838221</v>
+        <v>0.572926835583822</v>
       </c>
       <c r="U31" t="n">
-        <v>0.007313959603197739</v>
+        <v>0.007313959603197737</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2989290022077463</v>
+        <v>0.2989290022077462</v>
       </c>
       <c r="H32" t="n">
-        <v>3.061406643860082</v>
+        <v>3.061406643860081</v>
       </c>
       <c r="I32" t="n">
-        <v>11.52446035761415</v>
+        <v>11.52446035761414</v>
       </c>
       <c r="J32" t="n">
-        <v>25.37122540112973</v>
+        <v>25.37122540112972</v>
       </c>
       <c r="K32" t="n">
-        <v>38.02489006458364</v>
+        <v>38.02489006458362</v>
       </c>
       <c r="L32" t="n">
-        <v>47.17323851589896</v>
+        <v>47.17323851589894</v>
       </c>
       <c r="M32" t="n">
-        <v>52.48931715891096</v>
+        <v>52.48931715891094</v>
       </c>
       <c r="N32" t="n">
-        <v>52.33767709392517</v>
+        <v>52.33767709392515</v>
       </c>
       <c r="O32" t="n">
-        <v>50.36617392073045</v>
+        <v>50.36617392073043</v>
       </c>
       <c r="P32" t="n">
-        <v>42.9863641787267</v>
+        <v>42.98636417872669</v>
       </c>
       <c r="Q32" t="n">
-        <v>32.28096928716178</v>
+        <v>32.28096928716177</v>
       </c>
       <c r="R32" t="n">
-        <v>18.77759893493236</v>
+        <v>18.77759893493235</v>
       </c>
       <c r="S32" t="n">
-        <v>6.811844637809025</v>
+        <v>6.811844637809022</v>
       </c>
       <c r="T32" t="n">
         <v>1.30856170716441</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0239143201766197</v>
+        <v>0.02391432017661969</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>0.1599411166057768</v>
       </c>
       <c r="H33" t="n">
-        <v>1.544694468271582</v>
+        <v>1.544694468271581</v>
       </c>
       <c r="I33" t="n">
-        <v>5.506744584891878</v>
+        <v>5.506744584891876</v>
       </c>
       <c r="J33" t="n">
         <v>15.11092803861859</v>
       </c>
       <c r="K33" t="n">
-        <v>25.82698285120564</v>
+        <v>25.82698285120563</v>
       </c>
       <c r="L33" t="n">
         <v>34.72756569109202</v>
       </c>
       <c r="M33" t="n">
-        <v>28.36924136188458</v>
+        <v>28.36924136188457</v>
       </c>
       <c r="N33" t="n">
-        <v>36.40108247302081</v>
+        <v>36.40108247302079</v>
       </c>
       <c r="O33" t="n">
-        <v>38.054060318042</v>
+        <v>38.05406031804198</v>
       </c>
       <c r="P33" t="n">
-        <v>30.54173831044874</v>
+        <v>30.54173831044873</v>
       </c>
       <c r="Q33" t="n">
-        <v>20.41634323550232</v>
+        <v>20.41634323550231</v>
       </c>
       <c r="R33" t="n">
-        <v>9.930379152067445</v>
+        <v>9.930379152067442</v>
       </c>
       <c r="S33" t="n">
-        <v>2.970836091339756</v>
+        <v>2.970836091339755</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6446749393013546</v>
+        <v>0.6446749393013543</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01052244188195901</v>
+        <v>0.010522441881959</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1340892593919584</v>
+        <v>0.1340892593919583</v>
       </c>
       <c r="H34" t="n">
         <v>1.192175415321231</v>
       </c>
       <c r="I34" t="n">
-        <v>4.032429727896351</v>
+        <v>4.032429727896349</v>
       </c>
       <c r="J34" t="n">
-        <v>9.480110639011459</v>
+        <v>9.480110639011455</v>
       </c>
       <c r="K34" t="n">
         <v>15.57873395481116</v>
       </c>
       <c r="L34" t="n">
-        <v>19.93541589178262</v>
+        <v>19.93541589178261</v>
       </c>
       <c r="M34" t="n">
-        <v>21.01910090632308</v>
+        <v>21.01910090632307</v>
       </c>
       <c r="N34" t="n">
-        <v>20.51931366677125</v>
+        <v>20.51931366677124</v>
       </c>
       <c r="O34" t="n">
-        <v>18.95290731841973</v>
+        <v>18.95290731841972</v>
       </c>
       <c r="P34" t="n">
         <v>16.21748642682376</v>
       </c>
       <c r="Q34" t="n">
-        <v>11.22814698417572</v>
+        <v>11.22814698417571</v>
       </c>
       <c r="R34" t="n">
-        <v>6.029140699569329</v>
+        <v>6.029140699569326</v>
       </c>
       <c r="S34" t="n">
-        <v>2.336810093221674</v>
+        <v>2.336810093221673</v>
       </c>
       <c r="T34" t="n">
-        <v>0.5729268355838221</v>
+        <v>0.572926835583822</v>
       </c>
       <c r="U34" t="n">
-        <v>0.007313959603197739</v>
+        <v>0.007313959603197737</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2989290022077463</v>
+        <v>0.2989290022077462</v>
       </c>
       <c r="H35" t="n">
-        <v>3.061406643860082</v>
+        <v>3.061406643860081</v>
       </c>
       <c r="I35" t="n">
-        <v>11.52446035761415</v>
+        <v>11.52446035761414</v>
       </c>
       <c r="J35" t="n">
-        <v>25.37122540112973</v>
+        <v>25.37122540112972</v>
       </c>
       <c r="K35" t="n">
-        <v>38.02489006458364</v>
+        <v>38.02489006458362</v>
       </c>
       <c r="L35" t="n">
-        <v>47.17323851589896</v>
+        <v>47.17323851589894</v>
       </c>
       <c r="M35" t="n">
-        <v>52.48931715891096</v>
+        <v>52.48931715891094</v>
       </c>
       <c r="N35" t="n">
-        <v>52.33767709392517</v>
+        <v>52.33767709392515</v>
       </c>
       <c r="O35" t="n">
-        <v>50.36617392073045</v>
+        <v>50.36617392073043</v>
       </c>
       <c r="P35" t="n">
-        <v>42.9863641787267</v>
+        <v>42.98636417872669</v>
       </c>
       <c r="Q35" t="n">
-        <v>32.28096928716178</v>
+        <v>32.28096928716177</v>
       </c>
       <c r="R35" t="n">
-        <v>18.77759893493236</v>
+        <v>18.77759893493235</v>
       </c>
       <c r="S35" t="n">
-        <v>6.811844637809025</v>
+        <v>6.811844637809022</v>
       </c>
       <c r="T35" t="n">
         <v>1.30856170716441</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0239143201766197</v>
+        <v>0.02391432017661969</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>0.1599411166057768</v>
       </c>
       <c r="H36" t="n">
-        <v>1.544694468271582</v>
+        <v>1.544694468271581</v>
       </c>
       <c r="I36" t="n">
-        <v>5.506744584891878</v>
+        <v>5.506744584891876</v>
       </c>
       <c r="J36" t="n">
         <v>15.11092803861859</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>25.82698285120563</v>
       </c>
       <c r="L36" t="n">
-        <v>28.36972129904178</v>
+        <v>33.71286938678954</v>
       </c>
       <c r="M36" t="n">
-        <v>38.15483477180713</v>
+        <v>38.1548347718071</v>
       </c>
       <c r="N36" t="n">
-        <v>36.40108247302081</v>
+        <v>36.40108247302079</v>
       </c>
       <c r="O36" t="n">
-        <v>38.054060318042</v>
+        <v>38.05406031804198</v>
       </c>
       <c r="P36" t="n">
-        <v>30.54173831044874</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>20.41634323550232</v>
+        <v>20.41634323550231</v>
       </c>
       <c r="R36" t="n">
-        <v>9.930379152067445</v>
+        <v>9.930379152067442</v>
       </c>
       <c r="S36" t="n">
-        <v>2.970836091339756</v>
+        <v>2.970836091339755</v>
       </c>
       <c r="T36" t="n">
-        <v>0.6446749393013546</v>
+        <v>0.6446749393013543</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01052244188195901</v>
+        <v>0.010522441881959</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1340892593919584</v>
+        <v>0.1340892593919583</v>
       </c>
       <c r="H37" t="n">
         <v>1.192175415321231</v>
       </c>
       <c r="I37" t="n">
-        <v>4.032429727896351</v>
+        <v>4.032429727896349</v>
       </c>
       <c r="J37" t="n">
-        <v>9.480110639011459</v>
+        <v>9.480110639011455</v>
       </c>
       <c r="K37" t="n">
         <v>15.57873395481116</v>
       </c>
       <c r="L37" t="n">
-        <v>19.93541589178262</v>
+        <v>19.93541589178261</v>
       </c>
       <c r="M37" t="n">
-        <v>21.01910090632308</v>
+        <v>21.01910090632307</v>
       </c>
       <c r="N37" t="n">
-        <v>20.51931366677125</v>
+        <v>20.51931366677124</v>
       </c>
       <c r="O37" t="n">
-        <v>18.95290731841973</v>
+        <v>18.95290731841972</v>
       </c>
       <c r="P37" t="n">
         <v>16.21748642682376</v>
       </c>
       <c r="Q37" t="n">
-        <v>11.22814698417572</v>
+        <v>11.22814698417571</v>
       </c>
       <c r="R37" t="n">
-        <v>6.029140699569329</v>
+        <v>6.029140699569326</v>
       </c>
       <c r="S37" t="n">
-        <v>2.336810093221674</v>
+        <v>2.336810093221673</v>
       </c>
       <c r="T37" t="n">
-        <v>0.5729268355838221</v>
+        <v>0.572926835583822</v>
       </c>
       <c r="U37" t="n">
-        <v>0.007313959603197739</v>
+        <v>0.007313959603197737</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2989290022077463</v>
+        <v>0.2989290022077462</v>
       </c>
       <c r="H38" t="n">
-        <v>3.061406643860082</v>
+        <v>3.061406643860081</v>
       </c>
       <c r="I38" t="n">
-        <v>11.52446035761415</v>
+        <v>11.52446035761414</v>
       </c>
       <c r="J38" t="n">
-        <v>25.37122540112973</v>
+        <v>25.37122540112972</v>
       </c>
       <c r="K38" t="n">
-        <v>38.02489006458364</v>
+        <v>38.02489006458362</v>
       </c>
       <c r="L38" t="n">
-        <v>47.17323851589896</v>
+        <v>47.17323851589894</v>
       </c>
       <c r="M38" t="n">
-        <v>52.48931715891096</v>
+        <v>52.48931715891094</v>
       </c>
       <c r="N38" t="n">
-        <v>52.33767709392517</v>
+        <v>52.33767709392515</v>
       </c>
       <c r="O38" t="n">
-        <v>50.36617392073045</v>
+        <v>50.36617392073043</v>
       </c>
       <c r="P38" t="n">
-        <v>42.9863641787267</v>
+        <v>42.98636417872669</v>
       </c>
       <c r="Q38" t="n">
-        <v>32.28096928716178</v>
+        <v>32.28096928716177</v>
       </c>
       <c r="R38" t="n">
-        <v>18.77759893493236</v>
+        <v>18.77759893493235</v>
       </c>
       <c r="S38" t="n">
-        <v>6.811844637809025</v>
+        <v>6.811844637809022</v>
       </c>
       <c r="T38" t="n">
         <v>1.30856170716441</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0239143201766197</v>
+        <v>0.02391432017661969</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>0.1599411166057768</v>
       </c>
       <c r="H39" t="n">
-        <v>1.544694468271582</v>
+        <v>1.544694468271581</v>
       </c>
       <c r="I39" t="n">
-        <v>5.506744584891878</v>
+        <v>5.506744584891876</v>
       </c>
       <c r="J39" t="n">
         <v>15.11092803861859</v>
       </c>
       <c r="K39" t="n">
-        <v>25.82698285120564</v>
+        <v>25.82698285120563</v>
       </c>
       <c r="L39" t="n">
         <v>34.72756569109202</v>
       </c>
       <c r="M39" t="n">
-        <v>28.36924136188458</v>
+        <v>38.1548347718071</v>
       </c>
       <c r="N39" t="n">
-        <v>36.40108247302081</v>
+        <v>26.61548906309825</v>
       </c>
       <c r="O39" t="n">
-        <v>38.054060318042</v>
+        <v>38.05406031804198</v>
       </c>
       <c r="P39" t="n">
-        <v>30.54173831044874</v>
+        <v>30.54173831044873</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.41634323550232</v>
+        <v>20.41634323550231</v>
       </c>
       <c r="R39" t="n">
-        <v>9.930379152067445</v>
+        <v>9.930379152067442</v>
       </c>
       <c r="S39" t="n">
-        <v>2.970836091339756</v>
+        <v>2.970836091339755</v>
       </c>
       <c r="T39" t="n">
-        <v>0.6446749393013546</v>
+        <v>0.6446749393013543</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01052244188195901</v>
+        <v>0.010522441881959</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1340892593919584</v>
+        <v>0.1340892593919583</v>
       </c>
       <c r="H40" t="n">
         <v>1.192175415321231</v>
       </c>
       <c r="I40" t="n">
-        <v>4.032429727896351</v>
+        <v>4.032429727896349</v>
       </c>
       <c r="J40" t="n">
-        <v>9.480110639011459</v>
+        <v>9.480110639011455</v>
       </c>
       <c r="K40" t="n">
         <v>15.57873395481116</v>
       </c>
       <c r="L40" t="n">
-        <v>19.93541589178262</v>
+        <v>19.93541589178261</v>
       </c>
       <c r="M40" t="n">
-        <v>21.01910090632308</v>
+        <v>21.01910090632307</v>
       </c>
       <c r="N40" t="n">
-        <v>20.51931366677125</v>
+        <v>20.51931366677124</v>
       </c>
       <c r="O40" t="n">
-        <v>18.95290731841973</v>
+        <v>18.95290731841972</v>
       </c>
       <c r="P40" t="n">
         <v>16.21748642682376</v>
       </c>
       <c r="Q40" t="n">
-        <v>11.22814698417572</v>
+        <v>11.22814698417571</v>
       </c>
       <c r="R40" t="n">
-        <v>6.029140699569329</v>
+        <v>6.029140699569326</v>
       </c>
       <c r="S40" t="n">
-        <v>2.336810093221674</v>
+        <v>2.336810093221673</v>
       </c>
       <c r="T40" t="n">
-        <v>0.5729268355838221</v>
+        <v>0.572926835583822</v>
       </c>
       <c r="U40" t="n">
-        <v>0.007313959603197739</v>
+        <v>0.007313959603197737</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2989290022077463</v>
+        <v>0.2989290022077462</v>
       </c>
       <c r="H41" t="n">
-        <v>3.061406643860082</v>
+        <v>3.061406643860081</v>
       </c>
       <c r="I41" t="n">
-        <v>11.52446035761415</v>
+        <v>11.52446035761414</v>
       </c>
       <c r="J41" t="n">
-        <v>25.37122540112973</v>
+        <v>25.37122540112972</v>
       </c>
       <c r="K41" t="n">
-        <v>38.02489006458364</v>
+        <v>38.02489006458362</v>
       </c>
       <c r="L41" t="n">
-        <v>47.17323851589896</v>
+        <v>47.17323851589894</v>
       </c>
       <c r="M41" t="n">
-        <v>52.48931715891099</v>
+        <v>52.48931715891094</v>
       </c>
       <c r="N41" t="n">
-        <v>52.33767709392519</v>
+        <v>52.33767709392515</v>
       </c>
       <c r="O41" t="n">
-        <v>50.36617392073045</v>
+        <v>50.36617392073043</v>
       </c>
       <c r="P41" t="n">
-        <v>42.9863641787267</v>
+        <v>42.98636417872669</v>
       </c>
       <c r="Q41" t="n">
-        <v>32.28096928716178</v>
+        <v>32.28096928716177</v>
       </c>
       <c r="R41" t="n">
-        <v>18.77759893493236</v>
+        <v>18.77759893493235</v>
       </c>
       <c r="S41" t="n">
-        <v>6.811844637809025</v>
+        <v>6.811844637809022</v>
       </c>
       <c r="T41" t="n">
         <v>1.30856170716441</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0239143201766197</v>
+        <v>0.02391432017661969</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>0.1599411166057768</v>
       </c>
       <c r="H42" t="n">
-        <v>1.544694468271582</v>
+        <v>1.544694468271581</v>
       </c>
       <c r="I42" t="n">
-        <v>5.506744584891878</v>
+        <v>5.506744584891876</v>
       </c>
       <c r="J42" t="n">
         <v>15.11092803861859</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>25.82698285120563</v>
       </c>
       <c r="L42" t="n">
         <v>34.72756569109202</v>
       </c>
       <c r="M42" t="n">
-        <v>38.15483477180715</v>
+        <v>38.1548347718071</v>
       </c>
       <c r="N42" t="n">
-        <v>36.40108247302084</v>
+        <v>26.61548906309824</v>
       </c>
       <c r="O42" t="n">
-        <v>31.69621592599179</v>
+        <v>38.05406031804198</v>
       </c>
       <c r="P42" t="n">
-        <v>30.54173831044874</v>
+        <v>30.54173831044873</v>
       </c>
       <c r="Q42" t="n">
-        <v>20.41634323550232</v>
+        <v>20.41634323550231</v>
       </c>
       <c r="R42" t="n">
-        <v>9.930379152067445</v>
+        <v>9.930379152067442</v>
       </c>
       <c r="S42" t="n">
-        <v>2.970836091339756</v>
+        <v>2.970836091339755</v>
       </c>
       <c r="T42" t="n">
-        <v>0.6446749393013546</v>
+        <v>0.6446749393013543</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01052244188195901</v>
+        <v>0.010522441881959</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1340892593919584</v>
+        <v>0.1340892593919583</v>
       </c>
       <c r="H43" t="n">
         <v>1.192175415321231</v>
       </c>
       <c r="I43" t="n">
-        <v>4.032429727896351</v>
+        <v>4.032429727896349</v>
       </c>
       <c r="J43" t="n">
-        <v>9.480110639011459</v>
+        <v>9.480110639011455</v>
       </c>
       <c r="K43" t="n">
         <v>15.57873395481116</v>
       </c>
       <c r="L43" t="n">
-        <v>19.93541589178262</v>
+        <v>19.93541589178261</v>
       </c>
       <c r="M43" t="n">
-        <v>21.01910090632308</v>
+        <v>21.01910090632307</v>
       </c>
       <c r="N43" t="n">
-        <v>20.51931366677125</v>
+        <v>20.51931366677124</v>
       </c>
       <c r="O43" t="n">
-        <v>18.95290731841973</v>
+        <v>18.95290731841972</v>
       </c>
       <c r="P43" t="n">
         <v>16.21748642682376</v>
       </c>
       <c r="Q43" t="n">
-        <v>11.22814698417572</v>
+        <v>11.22814698417571</v>
       </c>
       <c r="R43" t="n">
-        <v>6.029140699569329</v>
+        <v>6.029140699569326</v>
       </c>
       <c r="S43" t="n">
-        <v>2.336810093221674</v>
+        <v>2.336810093221673</v>
       </c>
       <c r="T43" t="n">
-        <v>0.5729268355838221</v>
+        <v>0.572926835583822</v>
       </c>
       <c r="U43" t="n">
-        <v>0.007313959603197739</v>
+        <v>0.007313959603197737</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34456,13 +34456,13 @@
         <v>34.72756569109202</v>
       </c>
       <c r="M45" t="n">
-        <v>28.36924136188455</v>
+        <v>38.1548347718071</v>
       </c>
       <c r="N45" t="n">
         <v>36.40108247302079</v>
       </c>
       <c r="O45" t="n">
-        <v>38.05406031804198</v>
+        <v>28.26846690811943</v>
       </c>
       <c r="P45" t="n">
         <v>30.54173831044873</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>3.436086158235936</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2.600378746450332</v>
+        <v>2.600378746450325</v>
       </c>
       <c r="M17" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="N17" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="O17" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3.43608615823594</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>6.290631848041479</v>
+        <v>1.319057674398896</v>
       </c>
       <c r="M18" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="N18" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="O18" t="n">
-        <v>6.036464904686268</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>4.717407230287364</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>6.290631848041479</v>
+        <v>6.036464904686261</v>
       </c>
       <c r="K19" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="L19" t="n">
-        <v>6.03646490468627</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -36062,7 +36062,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.290631848041479</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2.600378746450332</v>
+        <v>2.600378746450325</v>
       </c>
       <c r="M20" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="N20" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="O20" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="P20" t="n">
-        <v>3.43608615823594</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>3.436086158235936</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.3190576743989</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="M21" t="n">
-        <v>6.290631848041479</v>
+        <v>1.319057674398896</v>
       </c>
       <c r="N21" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="O21" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="P21" t="n">
-        <v>4.717407230287371</v>
+        <v>4.717407230287364</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36287,16 +36287,16 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>6.03646490468627</v>
+        <v>6.036464904686261</v>
       </c>
       <c r="N22" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="O22" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="P22" t="n">
-        <v>6.290631848041479</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>2.260289269774297</v>
+        <v>2.260289269774283</v>
       </c>
       <c r="L23" t="n">
-        <v>8.861196083276035</v>
+        <v>8.86119608327602</v>
       </c>
       <c r="M23" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N23" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O23" t="n">
-        <v>12.97521456470635</v>
+        <v>12.97521456470633</v>
       </c>
       <c r="P23" t="n">
-        <v>5.411002368495403</v>
+        <v>5.411002368495389</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>3.427749017872291</v>
       </c>
       <c r="L24" t="n">
-        <v>12.21247897686247</v>
+        <v>12.21247897686246</v>
       </c>
       <c r="M24" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N24" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O24" t="n">
-        <v>8.524326203769528</v>
+        <v>5.09657718589722</v>
       </c>
       <c r="P24" t="n">
-        <v>8.770897105620072</v>
+        <v>8.770897105620062</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36521,22 +36521,22 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="M25" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N25" t="n">
-        <v>14.44964802677292</v>
+        <v>14.4496480267729</v>
       </c>
       <c r="O25" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2.260289269774297</v>
+        <v>2.260289269774283</v>
       </c>
       <c r="L26" t="n">
-        <v>8.861196083276035</v>
+        <v>8.86119608327602</v>
       </c>
       <c r="M26" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N26" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O26" t="n">
-        <v>12.97521456470635</v>
+        <v>12.97521456470633</v>
       </c>
       <c r="P26" t="n">
-        <v>5.411002368495403</v>
+        <v>5.411002368495389</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>12.21247897686247</v>
+        <v>12.21247897686246</v>
       </c>
       <c r="M27" t="n">
-        <v>8.700209867428892</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N27" t="n">
-        <v>15.05805425947915</v>
+        <v>8.700209867428876</v>
       </c>
       <c r="O27" t="n">
-        <v>14.88217059581978</v>
+        <v>14.88217059581976</v>
       </c>
       <c r="P27" t="n">
-        <v>8.770897105620072</v>
+        <v>8.770897105620062</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>14.4496480267729</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="L28" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>14.44964802677292</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>2.260289269774297</v>
+        <v>2.260289269774283</v>
       </c>
       <c r="L29" t="n">
-        <v>8.861196083276035</v>
+        <v>8.86119608327602</v>
       </c>
       <c r="M29" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N29" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O29" t="n">
-        <v>12.97521456470635</v>
+        <v>12.97521456470633</v>
       </c>
       <c r="P29" t="n">
-        <v>5.411002368495403</v>
+        <v>5.411002368495389</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>3.427749017872301</v>
+        <v>3.427749017872291</v>
       </c>
       <c r="L30" t="n">
-        <v>12.21247897686247</v>
+        <v>12.21247897686246</v>
       </c>
       <c r="M30" t="n">
-        <v>5.272460849556602</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N30" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O30" t="n">
-        <v>14.88217059581978</v>
+        <v>13.86747429151728</v>
       </c>
       <c r="P30" t="n">
-        <v>8.770897105620072</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>15.05805425947915</v>
+        <v>14.4496480267729</v>
       </c>
       <c r="N31" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>14.44964802677292</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>2.260289269774297</v>
+        <v>2.260289269774283</v>
       </c>
       <c r="L32" t="n">
-        <v>8.861196083276035</v>
+        <v>8.86119608327602</v>
       </c>
       <c r="M32" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N32" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O32" t="n">
-        <v>12.97521456470635</v>
+        <v>12.97521456470633</v>
       </c>
       <c r="P32" t="n">
-        <v>5.411002368495403</v>
+        <v>5.411002368495389</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>3.427749017872301</v>
+        <v>3.427749017872291</v>
       </c>
       <c r="L33" t="n">
-        <v>12.21247897686247</v>
+        <v>12.21247897686246</v>
       </c>
       <c r="M33" t="n">
-        <v>5.272460849556602</v>
+        <v>5.272460849556587</v>
       </c>
       <c r="N33" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O33" t="n">
-        <v>14.88217059581978</v>
+        <v>14.88217059581976</v>
       </c>
       <c r="P33" t="n">
-        <v>8.770897105620072</v>
+        <v>8.770897105620062</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>14.4496480267729</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="M34" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N34" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>14.44964802677292</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>2.260289269774297</v>
+        <v>2.260289269774283</v>
       </c>
       <c r="L35" t="n">
-        <v>8.861196083276035</v>
+        <v>8.86119608327602</v>
       </c>
       <c r="M35" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N35" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O35" t="n">
-        <v>12.97521456470635</v>
+        <v>12.97521456470633</v>
       </c>
       <c r="P35" t="n">
-        <v>5.411002368495387</v>
+        <v>5.411002368495389</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>3.427749017872291</v>
       </c>
       <c r="L36" t="n">
-        <v>5.854634584812222</v>
+        <v>11.19778267255998</v>
       </c>
       <c r="M36" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N36" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O36" t="n">
-        <v>14.88217059581978</v>
+        <v>14.88217059581976</v>
       </c>
       <c r="P36" t="n">
-        <v>8.770897105620072</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="K37" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="L37" t="n">
-        <v>14.44964802677293</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37478,13 +37478,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>14.4496480267729</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>2.260289269774297</v>
+        <v>2.260289269774283</v>
       </c>
       <c r="L38" t="n">
-        <v>8.861196083276035</v>
+        <v>8.86119608327602</v>
       </c>
       <c r="M38" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N38" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O38" t="n">
-        <v>12.97521456470634</v>
+        <v>12.97521456470633</v>
       </c>
       <c r="P38" t="n">
-        <v>5.411002368495403</v>
+        <v>5.411002368495389</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>3.427749017872301</v>
+        <v>3.427749017872291</v>
       </c>
       <c r="L39" t="n">
-        <v>12.21247897686247</v>
+        <v>12.21247897686246</v>
       </c>
       <c r="M39" t="n">
-        <v>5.272460849556602</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N39" t="n">
-        <v>15.05805425947915</v>
+        <v>5.272460849556587</v>
       </c>
       <c r="O39" t="n">
-        <v>14.88217059581978</v>
+        <v>14.88217059581976</v>
       </c>
       <c r="P39" t="n">
-        <v>8.770897105620072</v>
+        <v>8.770897105620062</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="L40" t="n">
-        <v>14.44964802677293</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37715,13 +37715,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="P40" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>14.4496480267729</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>2.260289269774297</v>
+        <v>2.260289269774283</v>
       </c>
       <c r="L41" t="n">
-        <v>8.861196083276035</v>
+        <v>8.86119608327602</v>
       </c>
       <c r="M41" t="n">
-        <v>15.05805425947917</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N41" t="n">
-        <v>15.05805425947917</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O41" t="n">
-        <v>12.97521456470635</v>
+        <v>12.97521456470633</v>
       </c>
       <c r="P41" t="n">
-        <v>5.411002368495403</v>
+        <v>5.411002368495389</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>3.427749017872291</v>
       </c>
       <c r="L42" t="n">
-        <v>12.21247897686247</v>
+        <v>12.21247897686246</v>
       </c>
       <c r="M42" t="n">
-        <v>15.05805425947917</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N42" t="n">
-        <v>15.05805425947917</v>
+        <v>5.272460849556572</v>
       </c>
       <c r="O42" t="n">
-        <v>8.524326203769572</v>
+        <v>14.88217059581976</v>
       </c>
       <c r="P42" t="n">
-        <v>8.770897105620072</v>
+        <v>8.770897105620062</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="K43" t="n">
-        <v>15.05805425947917</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="L43" t="n">
-        <v>14.44964802677294</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>15.05805425947917</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -37958,7 +37958,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.05805425947917</v>
+        <v>14.4496480267729</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>12.21247897686246</v>
       </c>
       <c r="M45" t="n">
-        <v>5.272460849556576</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="N45" t="n">
         <v>15.05805425947912</v>
       </c>
       <c r="O45" t="n">
-        <v>14.88217059581976</v>
+        <v>5.096577185897206</v>
       </c>
       <c r="P45" t="n">
         <v>8.770897105620062</v>
@@ -38180,7 +38180,7 @@
         <v>15.05805425947912</v>
       </c>
       <c r="L46" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>14.4496480267729</v>
@@ -38195,7 +38195,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
